--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2899440.883149547</v>
+        <v>2886593.004523748</v>
       </c>
     </row>
     <row r="7">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>204.0541690119294</v>
       </c>
       <c r="F2" t="n">
-        <v>265.4194341367663</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -755,10 +755,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>49.40550599527123</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -797,16 +797,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>73.57476092360019</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>268.6107013963115</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>65.56890490089388</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>227.3410147708367</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>128.4844871876552</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -986,16 +986,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>124.2140509922768</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>64.09466579025828</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>56.78874461372731</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>281.1034550888906</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>59.02062907258611</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -1201,7 +1201,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.62728067699489</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>29.68628459940282</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1262,13 +1262,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>79.35573680956007</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>47.51292862433147</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>242.420315677682</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>284.4952700899796</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D11" t="n">
-        <v>226.0778447145908</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>285.2300286620948</v>
       </c>
       <c r="F11" t="n">
-        <v>304.401844750072</v>
+        <v>161.9025465449323</v>
       </c>
       <c r="G11" t="n">
-        <v>305.9495592627113</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.61714590357599</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>114.8197628315509</v>
       </c>
       <c r="U11" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>228.0016473301587</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.37839733294504</v>
+        <v>46.37839733294503</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4397598257968</v>
+        <v>147.4397598257967</v>
       </c>
       <c r="T12" t="n">
         <v>185.9667623645125</v>
@@ -1539,7 +1539,7 @@
         <v>44.88109006343498</v>
       </c>
       <c r="F13" t="n">
-        <v>45.34801439162129</v>
+        <v>45.34801439162116</v>
       </c>
       <c r="G13" t="n">
         <v>61.44977113770467</v>
@@ -1548,7 +1548,7 @@
         <v>50.63343779194464</v>
       </c>
       <c r="I13" t="n">
-        <v>31.95222277344502</v>
+        <v>31.95222277344501</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.64244959656068</v>
+        <v>34.64244959656067</v>
       </c>
       <c r="S13" t="n">
-        <v>102.9508542594717</v>
+        <v>102.9508542594721</v>
       </c>
       <c r="T13" t="n">
         <v>124.5003786343977</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.4952700899796</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>272.5065870476614</v>
@@ -1618,7 +1618,7 @@
         <v>285.2300286620948</v>
       </c>
       <c r="F14" t="n">
-        <v>304.401844750072</v>
+        <v>1.815421058962485</v>
       </c>
       <c r="G14" t="n">
         <v>305.9495592627113</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.9630538273417</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>114.8197628315509</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14.55680886005075</v>
+        <v>253.3017468081156</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>272.6020050408622</v>
       </c>
       <c r="Y14" t="n">
         <v>283.998602837061</v>
@@ -1767,7 +1767,7 @@
         <v>76.11198096467666</v>
       </c>
       <c r="C16" t="n">
-        <v>62.31197581007697</v>
+        <v>62.31197581007714</v>
       </c>
       <c r="D16" t="n">
         <v>45.93334020765553</v>
@@ -1779,10 +1779,10 @@
         <v>45.34801439162129</v>
       </c>
       <c r="G16" t="n">
-        <v>61.44977113770467</v>
+        <v>61.44977113770466</v>
       </c>
       <c r="H16" t="n">
-        <v>50.63343779194464</v>
+        <v>50.63343779194463</v>
       </c>
       <c r="I16" t="n">
         <v>31.95222277344502</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.64244959656067</v>
+        <v>34.64244959656068</v>
       </c>
       <c r="S16" t="n">
         <v>102.9508542594721</v>
@@ -1821,7 +1821,7 @@
         <v>124.5003786343977</v>
       </c>
       <c r="U16" t="n">
-        <v>178.7010696660992</v>
+        <v>178.7010696660988</v>
       </c>
       <c r="V16" t="n">
         <v>152.5201173643023</v>
@@ -1852,13 +1852,13 @@
         <v>263.4878910921893</v>
       </c>
       <c r="E17" t="n">
-        <v>285.2300286620948</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>304.401844750072</v>
       </c>
       <c r="G17" t="n">
-        <v>305.9495592627113</v>
+        <v>237.0537330280673</v>
       </c>
       <c r="H17" t="n">
         <v>219.9366790238929</v>
@@ -1900,7 +1900,7 @@
         <v>114.8197628315509</v>
       </c>
       <c r="U17" t="n">
-        <v>76.57055255982534</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>272.6020050408622</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>283.998602837061</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T18" t="n">
         <v>185.9667623645125</v>
@@ -2016,10 +2016,10 @@
         <v>45.34801439162129</v>
       </c>
       <c r="G19" t="n">
-        <v>61.44977113770466</v>
+        <v>61.44977113770467</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63343779194436</v>
+        <v>50.63343779194464</v>
       </c>
       <c r="I19" t="n">
         <v>31.95222277344502</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.6424495965604</v>
+        <v>34.64244959656067</v>
       </c>
       <c r="S19" t="n">
         <v>102.9508542594721</v>
@@ -2058,7 +2058,7 @@
         <v>124.5003786343977</v>
       </c>
       <c r="U19" t="n">
-        <v>178.7010696660994</v>
+        <v>178.7010696660992</v>
       </c>
       <c r="V19" t="n">
         <v>152.5201173643023</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>284.4952700899796</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D20" t="n">
-        <v>263.4878910921893</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>285.2300286620948</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>304.401844750072</v>
@@ -2101,7 +2101,7 @@
         <v>219.9366790238929</v>
       </c>
       <c r="I20" t="n">
-        <v>50.61714590357597</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>70.9630538273417</v>
       </c>
       <c r="T20" t="n">
-        <v>114.8197628315509</v>
+        <v>112.6037036408014</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V20" t="n">
-        <v>33.76164909959704</v>
+        <v>228.0016473301587</v>
       </c>
       <c r="W20" t="n">
         <v>253.3017468081156</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>272.6020050408622</v>
       </c>
       <c r="Y20" t="n">
         <v>283.998602837061</v>
@@ -2210,7 +2210,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T21" t="n">
         <v>185.9667623645125</v>
@@ -2323,13 +2323,13 @@
         <v>272.5065870476614</v>
       </c>
       <c r="D23" t="n">
-        <v>50.04305262208218</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E23" t="n">
-        <v>285.2300286620948</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>304.401844750072</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>305.9495592627113</v>
@@ -2338,7 +2338,7 @@
         <v>219.9366790238929</v>
       </c>
       <c r="I23" t="n">
-        <v>50.61714590357597</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.9630538273417</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>114.8197628315509</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>228.0016473301587</v>
+        <v>199.8651301541576</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>253.3017468081156</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>272.6020050408622</v>
       </c>
       <c r="Y23" t="n">
         <v>283.998602837061</v>
@@ -2447,7 +2447,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S24" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T24" t="n">
         <v>185.9667623645125</v>
@@ -2557,16 +2557,16 @@
         <v>284.4952700899796</v>
       </c>
       <c r="C26" t="n">
-        <v>272.5065870476614</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>263.4878910921893</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>285.2300286620948</v>
       </c>
       <c r="F26" t="n">
-        <v>282.7566111317293</v>
+        <v>304.401844750072</v>
       </c>
       <c r="G26" t="n">
         <v>305.9495592627113</v>
@@ -2575,7 +2575,7 @@
         <v>219.9366790238929</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.9630538273417</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>114.8197628315509</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>24.64753515092394</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>253.3017468081156</v>
       </c>
       <c r="X26" t="n">
         <v>272.6020050408622</v>
@@ -2684,7 +2684,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S27" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T27" t="n">
         <v>185.9667623645125</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6424495965604</v>
+        <v>34.64244959656067</v>
       </c>
       <c r="S28" t="n">
         <v>102.9508542594721</v>
@@ -2778,7 +2778,7 @@
         <v>177.6870034349155</v>
       </c>
       <c r="X28" t="n">
-        <v>123.3321054307186</v>
+        <v>123.3321054307185</v>
       </c>
       <c r="Y28" t="n">
         <v>114.2069731867863</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284.4952700899796</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>272.5065870476614</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>263.4878910921893</v>
@@ -2803,13 +2803,13 @@
         <v>285.2300286620948</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>304.401844750072</v>
       </c>
       <c r="G29" t="n">
-        <v>8.30361191125516</v>
+        <v>305.9495592627113</v>
       </c>
       <c r="H29" t="n">
-        <v>219.9366790238929</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>50.61714590357597</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.9630538273417</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>114.8197628315509</v>
@@ -2854,13 +2854,13 @@
         <v>228.0016473301587</v>
       </c>
       <c r="W29" t="n">
-        <v>253.3017468081156</v>
+        <v>215.1569418584019</v>
       </c>
       <c r="X29" t="n">
         <v>272.6020050408622</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>283.998602837061</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S30" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T30" t="n">
         <v>185.9667623645125</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.11198096467648</v>
+        <v>76.11198096467666</v>
       </c>
       <c r="C31" t="n">
         <v>62.31197581007714</v>
@@ -2964,10 +2964,10 @@
         <v>45.34801439162129</v>
       </c>
       <c r="G31" t="n">
-        <v>61.44977113770467</v>
+        <v>61.44977113770466</v>
       </c>
       <c r="H31" t="n">
-        <v>50.63343779194464</v>
+        <v>50.63343779194463</v>
       </c>
       <c r="I31" t="n">
         <v>31.95222277344502</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.64244959656067</v>
+        <v>34.64244959656068</v>
       </c>
       <c r="S31" t="n">
         <v>102.9508542594721</v>
@@ -3006,7 +3006,7 @@
         <v>124.5003786343977</v>
       </c>
       <c r="U31" t="n">
-        <v>178.7010696660992</v>
+        <v>178.701069666099</v>
       </c>
       <c r="V31" t="n">
         <v>152.5201173643023</v>
@@ -3046,7 +3046,7 @@
         <v>305.9495592627113</v>
       </c>
       <c r="H32" t="n">
-        <v>209.7634170405377</v>
+        <v>219.9366790238929</v>
       </c>
       <c r="I32" t="n">
         <v>50.61714590357597</v>
@@ -3088,10 +3088,10 @@
         <v>146.6978046195039</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>228.0016473301587</v>
       </c>
       <c r="W32" t="n">
-        <v>253.3017468081156</v>
+        <v>15.12683749460128</v>
       </c>
       <c r="X32" t="n">
         <v>272.6020050408622</v>
@@ -3158,7 +3158,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S33" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T33" t="n">
         <v>185.9667623645125</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C35" t="n">
-        <v>25.91711886345431</v>
+        <v>175.834321487866</v>
       </c>
       <c r="D35" t="n">
-        <v>263.4878910921893</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>285.2300286620948</v>
@@ -3280,10 +3280,10 @@
         <v>304.401844750072</v>
       </c>
       <c r="G35" t="n">
-        <v>305.9495592627113</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9366790238929</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>50.61714590357597</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>70.9630538273417</v>
       </c>
       <c r="T35" t="n">
         <v>114.8197628315509</v>
@@ -3334,7 +3334,7 @@
         <v>272.6020050408622</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>283.998602837061</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S36" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T36" t="n">
         <v>185.9667623645125</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>284.4952700899796</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D38" t="n">
         <v>263.4878910921893</v>
@@ -3514,13 +3514,13 @@
         <v>285.2300286620948</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>304.401844750072</v>
       </c>
       <c r="G38" t="n">
-        <v>287.7113289730904</v>
+        <v>3.363135571602129</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>219.9366790238929</v>
       </c>
       <c r="I38" t="n">
         <v>50.61714590357597</v>
@@ -3562,7 +3562,7 @@
         <v>146.6978046195039</v>
       </c>
       <c r="V38" t="n">
-        <v>228.0016473301587</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>253.3017468081156</v>
@@ -3632,7 +3632,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S39" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T39" t="n">
         <v>185.9667623645125</v>
@@ -3675,10 +3675,10 @@
         <v>45.34801439162129</v>
       </c>
       <c r="G40" t="n">
-        <v>61.44977113770466</v>
+        <v>61.44977113770467</v>
       </c>
       <c r="H40" t="n">
-        <v>50.63343779194463</v>
+        <v>50.63343779194464</v>
       </c>
       <c r="I40" t="n">
         <v>31.95222277344502</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.64244959656068</v>
+        <v>34.64244959656067</v>
       </c>
       <c r="S40" t="n">
-        <v>102.9508542594717</v>
+        <v>102.9508542594721</v>
       </c>
       <c r="T40" t="n">
         <v>124.5003786343977</v>
       </c>
       <c r="U40" t="n">
-        <v>178.701069666099</v>
+        <v>178.7010696660992</v>
       </c>
       <c r="V40" t="n">
         <v>152.5201173643023</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.26962909813706</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>91.99748871909354</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.5573932955706</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>325.5445130567522</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>156.2249799364353</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>252.3056386523632</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
@@ -3869,7 +3869,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S42" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T42" t="n">
         <v>185.9667623645125</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>49.38302369946486</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>140.25028362942</v>
       </c>
       <c r="S43" t="n">
-        <v>208.5586882923314</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>88.50341642879253</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>289.61468483942</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>69.19484663816739</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>411.5573932955706</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.51288583221375</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>176.5708878602011</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.4275968644102</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3056386523632</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4106,7 +4106,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S45" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T45" t="n">
         <v>185.9667623645125</v>
@@ -4146,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.057605170564</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.241271824804</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.62692603552563</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>208.5586882923314</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>278.3229631630428</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.1882771285933</v>
+        <v>643.1379122630814</v>
       </c>
       <c r="C2" t="n">
-        <v>322.1882771285933</v>
+        <v>643.1379122630814</v>
       </c>
       <c r="D2" t="n">
-        <v>322.1882771285933</v>
+        <v>270.3139474903049</v>
       </c>
       <c r="E2" t="n">
-        <v>322.1882771285933</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F2" t="n">
         <v>54.08783860660719</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>1689.624883421327</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1434.739547135321</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.760273031262</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.760273031262</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="X2" t="n">
-        <v>715.7301325527553</v>
+        <v>1036.679767687243</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.1882771285933</v>
+        <v>643.1379122630814</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>821.3991591499413</v>
+        <v>902.8592828036792</v>
       </c>
       <c r="C3" t="n">
-        <v>659.695486390896</v>
+        <v>741.1556100446339</v>
       </c>
       <c r="D3" t="n">
-        <v>520.8568493811081</v>
+        <v>602.316973034846</v>
       </c>
       <c r="E3" t="n">
-        <v>373.8288394379794</v>
+        <v>455.2889630917172</v>
       </c>
       <c r="F3" t="n">
-        <v>239.1350413878537</v>
+        <v>320.5951650415916</v>
       </c>
       <c r="G3" t="n">
-        <v>110.4065414111382</v>
+        <v>191.8666650648762</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>91.92880761157421</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
@@ -4427,34 +4427,34 @@
         <v>2086.089750782109</v>
       </c>
       <c r="P3" t="n">
-        <v>2101.212805059961</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="W3" t="n">
-        <v>1253.053530380276</v>
+        <v>1452.717040057566</v>
       </c>
       <c r="X3" t="n">
-        <v>1055.136542258071</v>
+        <v>1254.800051935361</v>
       </c>
       <c r="Y3" t="n">
-        <v>980.8186019312022</v>
+        <v>1062.27872558494</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>2034.981587988351</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>1865.365618450032</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>1865.365618450032</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>1713.35660421135</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>1713.35660421135</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>1713.35660421135</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>1713.35660421135</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K4" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L4" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M4" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N4" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O4" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P4" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R4" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S4" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T4" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U4" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V4" t="n">
-        <v>313.3481969055543</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>2034.981587988351</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>2034.981587988351</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1382.203390477396</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="C5" t="n">
-        <v>1382.203390477396</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D5" t="n">
-        <v>1009.37942570462</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E5" t="n">
-        <v>614.5937058107263</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F5" t="n">
-        <v>604.4829191613007</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G5" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
         <v>42.02425610119923</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V5" t="n">
-        <v>1764.233530955903</v>
+        <v>1214.318950340613</v>
       </c>
       <c r="W5" t="n">
-        <v>1764.233530955903</v>
+        <v>851.784020198214</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.203390477396</v>
+        <v>851.784020198214</v>
       </c>
       <c r="Y5" t="n">
-        <v>1382.203390477396</v>
+        <v>458.242164774052</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.2993471409599</v>
+        <v>849.6949696926259</v>
       </c>
       <c r="C6" t="n">
-        <v>621.2993471409599</v>
+        <v>687.9912969335807</v>
       </c>
       <c r="D6" t="n">
-        <v>482.4607101311719</v>
+        <v>549.1526599237927</v>
       </c>
       <c r="E6" t="n">
-        <v>335.4327001880432</v>
+        <v>402.1246499806639</v>
       </c>
       <c r="F6" t="n">
-        <v>335.4327001880432</v>
+        <v>267.4308519305383</v>
       </c>
       <c r="G6" t="n">
-        <v>206.7042002113277</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7663427580258</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L6" t="n">
-        <v>331.768955194494</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M6" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P6" t="n">
         <v>1943.441175274367</v>
@@ -4682,16 +4682,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1240.133284165252</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>1042.216296043047</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>849.6949696926259</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>102.0814946870265</v>
+        <v>404.4675318088119</v>
       </c>
       <c r="D7" t="n">
-        <v>102.0814946870265</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="E7" t="n">
-        <v>102.0814946870265</v>
+        <v>99.38662439789348</v>
       </c>
       <c r="F7" t="n">
-        <v>102.0814946870265</v>
+        <v>99.38662439789348</v>
       </c>
       <c r="G7" t="n">
-        <v>102.0814946870265</v>
+        <v>99.38662439789348</v>
       </c>
       <c r="H7" t="n">
-        <v>102.0814946870265</v>
+        <v>99.38662439789348</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.8397888200133</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="C8" t="n">
-        <v>609.8397888200133</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="D8" t="n">
         <v>237.0158240472368</v>
@@ -4831,25 +4831,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V8" t="n">
-        <v>1764.233530955903</v>
+        <v>1375.122750092304</v>
       </c>
       <c r="W8" t="n">
-        <v>1401.698600813504</v>
+        <v>1012.587819949905</v>
       </c>
       <c r="X8" t="n">
-        <v>1019.668460334997</v>
+        <v>630.5576794713988</v>
       </c>
       <c r="Y8" t="n">
-        <v>1003.883328338032</v>
+        <v>237.0158240472368</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.2993471409599</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C9" t="n">
         <v>591.313201080957</v>
@@ -4883,25 +4883,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>49.73385863501696</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>279.2244111952056</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L9" t="n">
-        <v>645.0462563653213</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>1130.079609875548</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1641.34525599867</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4910,25 +4910,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>90.01711329749364</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>90.01711329749364</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V10" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>249.3897585182198</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>946.9436522594256</v>
+        <v>1095.123252885187</v>
       </c>
       <c r="C11" t="n">
-        <v>946.9436522594256</v>
+        <v>819.8640740491653</v>
       </c>
       <c r="D11" t="n">
-        <v>718.5821929517581</v>
+        <v>553.7146891075599</v>
       </c>
       <c r="E11" t="n">
-        <v>718.5821929517581</v>
+        <v>265.6035490448379</v>
       </c>
       <c r="F11" t="n">
-        <v>411.1055820930995</v>
+        <v>102.065623241876</v>
       </c>
       <c r="G11" t="n">
         <v>102.065623241876</v>
@@ -5041,13 +5041,13 @@
         <v>50.93719303624369</v>
       </c>
       <c r="J11" t="n">
-        <v>155.3318652848802</v>
+        <v>155.3318652848797</v>
       </c>
       <c r="K11" t="n">
-        <v>444.0256353355902</v>
+        <v>444.0256353355898</v>
       </c>
       <c r="L11" t="n">
-        <v>852.1457920320288</v>
+        <v>852.1457920320281</v>
       </c>
       <c r="M11" t="n">
         <v>1312.407761053182</v>
@@ -5074,19 +5074,19 @@
         <v>2430.880093396477</v>
       </c>
       <c r="U11" t="n">
-        <v>2282.700492770715</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="V11" t="n">
-        <v>2052.395798497828</v>
+        <v>2200.575399123589</v>
       </c>
       <c r="W11" t="n">
-        <v>1796.5354481866</v>
+        <v>1944.715048812361</v>
       </c>
       <c r="X11" t="n">
-        <v>1521.179887539264</v>
+        <v>1669.359488165026</v>
       </c>
       <c r="Y11" t="n">
-        <v>1234.312611946274</v>
+        <v>1382.492212572035</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>338.5907734748992</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0706464752944</v>
+        <v>210.0706464752943</v>
       </c>
       <c r="H12" t="n">
         <v>112.1452333009286</v>
@@ -5120,16 +5120,16 @@
         <v>50.93719303624369</v>
       </c>
       <c r="J12" t="n">
-        <v>130.4862514560598</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="K12" t="n">
-        <v>392.9548816789847</v>
+        <v>313.4058232591686</v>
       </c>
       <c r="L12" t="n">
-        <v>475.6394465677707</v>
+        <v>723.5707635943916</v>
       </c>
       <c r="M12" t="n">
-        <v>1012.419100606999</v>
+        <v>1260.35041763362</v>
       </c>
       <c r="N12" t="n">
         <v>1576.800617858203</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.9067406886511</v>
+        <v>396.9067406886509</v>
       </c>
       <c r="C13" t="n">
-        <v>333.9653509815025</v>
+        <v>333.9653509815023</v>
       </c>
       <c r="D13" t="n">
-        <v>287.5680376404363</v>
+        <v>287.5680376404361</v>
       </c>
       <c r="E13" t="n">
-        <v>242.2336032329262</v>
+        <v>242.233603232926</v>
       </c>
       <c r="F13" t="n">
         <v>196.4275280898743</v>
@@ -5199,19 +5199,19 @@
         <v>50.93719303624369</v>
       </c>
       <c r="J13" t="n">
-        <v>108.7318568374903</v>
+        <v>108.7318568374904</v>
       </c>
       <c r="K13" t="n">
-        <v>266.7800463495824</v>
+        <v>266.7800463495825</v>
       </c>
       <c r="L13" t="n">
         <v>497.3941077576472</v>
       </c>
       <c r="M13" t="n">
-        <v>746.7783366411451</v>
+        <v>746.7783366411452</v>
       </c>
       <c r="N13" t="n">
-        <v>995.9532304979158</v>
+        <v>995.9532304979159</v>
       </c>
       <c r="O13" t="n">
         <v>1223.169308896842</v>
@@ -5223,7 +5223,7 @@
         <v>1492.515763454236</v>
       </c>
       <c r="R13" t="n">
-        <v>1457.523390124376</v>
+        <v>1457.523390124377</v>
       </c>
       <c r="S13" t="n">
         <v>1353.532628246122</v>
@@ -5235,16 +5235,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V13" t="n">
-        <v>893.2078144432946</v>
+        <v>893.2078144432945</v>
       </c>
       <c r="W13" t="n">
-        <v>713.7259927918648</v>
+        <v>713.7259927918647</v>
       </c>
       <c r="X13" t="n">
-        <v>589.1481085184116</v>
+        <v>589.1481085184115</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.7875295418598</v>
+        <v>473.7875295418597</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1770.260158432403</v>
+        <v>1464.617306219161</v>
       </c>
       <c r="C14" t="n">
-        <v>1495.000979596381</v>
+        <v>1189.358127383139</v>
       </c>
       <c r="D14" t="n">
-        <v>1228.851594654776</v>
+        <v>923.208742441534</v>
       </c>
       <c r="E14" t="n">
-        <v>940.740454592054</v>
+        <v>635.097602378812</v>
       </c>
       <c r="F14" t="n">
         <v>633.2638437333953</v>
@@ -5281,7 +5281,7 @@
         <v>155.3318652848798</v>
       </c>
       <c r="K14" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355896</v>
       </c>
       <c r="L14" t="n">
         <v>852.1457920320283</v>
@@ -5305,25 +5305,25 @@
         <v>2546.859651812184</v>
       </c>
       <c r="S14" t="n">
-        <v>2475.179799461334</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="T14" t="n">
-        <v>2359.200241045627</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="U14" t="n">
-        <v>2359.200241045627</v>
+        <v>2282.700492770715</v>
       </c>
       <c r="V14" t="n">
-        <v>2359.200241045627</v>
+        <v>2282.700492770715</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.496393712242</v>
+        <v>2026.840142459487</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.496393712242</v>
+        <v>1751.484581812152</v>
       </c>
       <c r="Y14" t="n">
-        <v>2057.629118119251</v>
+        <v>1464.617306219161</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>50.93719303624369</v>
       </c>
       <c r="J15" t="n">
-        <v>130.4862514560598</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="K15" t="n">
-        <v>249.3154510708693</v>
+        <v>313.4058232591686</v>
       </c>
       <c r="L15" t="n">
-        <v>659.4803914060923</v>
+        <v>723.5707635943916</v>
       </c>
       <c r="M15" t="n">
-        <v>1196.260045445321</v>
+        <v>1260.35041763362</v>
       </c>
       <c r="N15" t="n">
-        <v>1760.641562696525</v>
+        <v>1576.800617858203</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.432158535147</v>
+        <v>2017.591213696825</v>
       </c>
       <c r="P15" t="n">
-        <v>2542.526354293996</v>
+        <v>2358.685409455674</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.526354293996</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>396.9067406886509</v>
+        <v>396.9067406886513</v>
       </c>
       <c r="C16" t="n">
-        <v>333.9653509815025</v>
+        <v>333.9653509815027</v>
       </c>
       <c r="D16" t="n">
-        <v>287.5680376404363</v>
+        <v>287.5680376404365</v>
       </c>
       <c r="E16" t="n">
-        <v>242.2336032329262</v>
+        <v>242.2336032329264</v>
       </c>
       <c r="F16" t="n">
-        <v>196.4275280898743</v>
+        <v>196.4275280898746</v>
       </c>
       <c r="G16" t="n">
-        <v>134.3570521932029</v>
+        <v>134.357052193203</v>
       </c>
       <c r="H16" t="n">
         <v>83.21216553467301</v>
@@ -5472,16 +5472,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V16" t="n">
-        <v>893.2078144432945</v>
+        <v>893.2078144432949</v>
       </c>
       <c r="W16" t="n">
-        <v>713.7259927918647</v>
+        <v>713.7259927918651</v>
       </c>
       <c r="X16" t="n">
-        <v>589.1481085184115</v>
+        <v>589.148108518412</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.7875295418597</v>
+        <v>473.7875295418601</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1719.131728226771</v>
+        <v>1361.428844492691</v>
       </c>
       <c r="C17" t="n">
-        <v>1443.872549390749</v>
+        <v>1086.16966565667</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.723164449144</v>
+        <v>820.0202807150642</v>
       </c>
       <c r="E17" t="n">
-        <v>889.6120243864218</v>
+        <v>820.0202807150642</v>
       </c>
       <c r="F17" t="n">
-        <v>582.1354135277631</v>
+        <v>512.5436698564056</v>
       </c>
       <c r="G17" t="n">
         <v>273.0954546765396</v>
       </c>
       <c r="H17" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I17" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J17" t="n">
-        <v>155.3318652848798</v>
+        <v>155.3318652848801</v>
       </c>
       <c r="K17" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355901</v>
       </c>
       <c r="L17" t="n">
         <v>852.1457920320288</v>
@@ -5533,34 +5533,34 @@
         <v>2128.162799782564</v>
       </c>
       <c r="P17" t="n">
-        <v>2411.208324325444</v>
+        <v>2411.208324325445</v>
       </c>
       <c r="Q17" t="n">
-        <v>2546.859651812184</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="R17" t="n">
-        <v>2546.859651812184</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="S17" t="n">
-        <v>2475.179799461334</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="T17" t="n">
         <v>2359.200241045627</v>
       </c>
       <c r="U17" t="n">
-        <v>2281.856248560955</v>
+        <v>2211.020640419866</v>
       </c>
       <c r="V17" t="n">
-        <v>2281.856248560955</v>
+        <v>2211.020640419866</v>
       </c>
       <c r="W17" t="n">
-        <v>2281.856248560955</v>
+        <v>2211.020640419866</v>
       </c>
       <c r="X17" t="n">
-        <v>2006.500687913619</v>
+        <v>1935.66507977253</v>
       </c>
       <c r="Y17" t="n">
-        <v>2006.500687913619</v>
+        <v>1648.797804179539</v>
       </c>
     </row>
     <row r="18">
@@ -5579,19 +5579,19 @@
         <v>620.3125814681537</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2845715250248</v>
+        <v>473.2845715250249</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5907734748992</v>
+        <v>338.5907734748993</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0706464752943</v>
+        <v>210.0706464752944</v>
       </c>
       <c r="H18" t="n">
-        <v>112.1452333009286</v>
+        <v>112.1452333009287</v>
       </c>
       <c r="I18" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J18" t="n">
         <v>130.4862514560598</v>
@@ -5600,7 +5600,7 @@
         <v>392.9548816789847</v>
       </c>
       <c r="L18" t="n">
-        <v>803.1198220142078</v>
+        <v>475.6394465677706</v>
       </c>
       <c r="M18" t="n">
         <v>1012.419100606999</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>396.9067406886509</v>
+        <v>396.9067406886511</v>
       </c>
       <c r="C19" t="n">
-        <v>333.9653509815022</v>
+        <v>333.9653509815025</v>
       </c>
       <c r="D19" t="n">
-        <v>287.568037640436</v>
+        <v>287.5680376404363</v>
       </c>
       <c r="E19" t="n">
-        <v>242.233603232926</v>
+        <v>242.2336032329262</v>
       </c>
       <c r="F19" t="n">
-        <v>196.4275280898742</v>
+        <v>196.4275280898743</v>
       </c>
       <c r="G19" t="n">
-        <v>134.3570521932027</v>
+        <v>134.3570521932029</v>
       </c>
       <c r="H19" t="n">
         <v>83.21216553467301</v>
       </c>
       <c r="I19" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J19" t="n">
-        <v>108.7318568374903</v>
+        <v>108.7318568374904</v>
       </c>
       <c r="K19" t="n">
-        <v>266.7800463495824</v>
+        <v>266.7800463495825</v>
       </c>
       <c r="L19" t="n">
         <v>497.3941077576472</v>
@@ -5685,10 +5685,10 @@
         <v>746.7783366411452</v>
       </c>
       <c r="N19" t="n">
-        <v>995.9532304979159</v>
+        <v>995.9532304979161</v>
       </c>
       <c r="O19" t="n">
-        <v>1223.169308896842</v>
+        <v>1223.169308896843</v>
       </c>
       <c r="P19" t="n">
         <v>1411.397407611776</v>
@@ -5709,16 +5709,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V19" t="n">
-        <v>893.2078144432945</v>
+        <v>893.2078144432946</v>
       </c>
       <c r="W19" t="n">
-        <v>713.7259927918647</v>
+        <v>713.7259927918648</v>
       </c>
       <c r="X19" t="n">
-        <v>589.1481085184115</v>
+        <v>589.1481085184116</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.7875295418596</v>
+        <v>473.7875295418598</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1495.000979596381</v>
+        <v>1164.871203222443</v>
       </c>
       <c r="C20" t="n">
-        <v>1495.000979596381</v>
+        <v>889.6120243864218</v>
       </c>
       <c r="D20" t="n">
-        <v>1228.851594654776</v>
+        <v>889.6120243864218</v>
       </c>
       <c r="E20" t="n">
-        <v>940.740454592054</v>
+        <v>889.6120243864218</v>
       </c>
       <c r="F20" t="n">
-        <v>633.2638437333953</v>
+        <v>582.1354135277631</v>
       </c>
       <c r="G20" t="n">
-        <v>324.2238848821719</v>
+        <v>273.0954546765396</v>
       </c>
       <c r="H20" t="n">
-        <v>102.065623241876</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I20" t="n">
         <v>50.9371930362437</v>
@@ -5755,7 +5755,7 @@
         <v>155.33186528488</v>
       </c>
       <c r="K20" t="n">
-        <v>444.02563533559</v>
+        <v>444.0256353355901</v>
       </c>
       <c r="L20" t="n">
         <v>852.1457920320287</v>
@@ -5782,22 +5782,22 @@
         <v>2475.179799461335</v>
       </c>
       <c r="T20" t="n">
-        <v>2359.200241045627</v>
+        <v>2361.438684672647</v>
       </c>
       <c r="U20" t="n">
-        <v>2359.200241045627</v>
+        <v>2213.259084046885</v>
       </c>
       <c r="V20" t="n">
-        <v>2325.097565187448</v>
+        <v>1982.954389773998</v>
       </c>
       <c r="W20" t="n">
-        <v>2069.23721487622</v>
+        <v>1727.09403946277</v>
       </c>
       <c r="X20" t="n">
-        <v>2069.23721487622</v>
+        <v>1451.738478815434</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.369939283229</v>
+        <v>1164.871203222443</v>
       </c>
     </row>
     <row r="21">
@@ -5816,31 +5816,31 @@
         <v>620.3125814681537</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2845715250248</v>
+        <v>473.2845715250249</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5907734748992</v>
+        <v>338.5907734748993</v>
       </c>
       <c r="G21" t="n">
         <v>210.0706464752944</v>
       </c>
       <c r="H21" t="n">
-        <v>112.1452333009286</v>
+        <v>112.1452333009287</v>
       </c>
       <c r="I21" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J21" t="n">
-        <v>65.47450623254764</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="K21" t="n">
-        <v>65.47450623254764</v>
+        <v>313.4058232591686</v>
       </c>
       <c r="L21" t="n">
-        <v>475.6394465677706</v>
+        <v>723.5707635943916</v>
       </c>
       <c r="M21" t="n">
-        <v>1012.419100606999</v>
+        <v>1260.35041763362</v>
       </c>
       <c r="N21" t="n">
         <v>1576.800617858203</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1554.659311492901</v>
+        <v>1123.54397730539</v>
       </c>
       <c r="C23" t="n">
-        <v>1279.400132656879</v>
+        <v>848.2847984693685</v>
       </c>
       <c r="D23" t="n">
-        <v>1228.851594654776</v>
+        <v>582.1354135277631</v>
       </c>
       <c r="E23" t="n">
-        <v>940.740454592054</v>
+        <v>582.1354135277631</v>
       </c>
       <c r="F23" t="n">
-        <v>633.2638437333953</v>
+        <v>582.1354135277631</v>
       </c>
       <c r="G23" t="n">
-        <v>324.2238848821719</v>
+        <v>273.0954546765396</v>
       </c>
       <c r="H23" t="n">
-        <v>102.065623241876</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I23" t="n">
         <v>50.9371930362437</v>
@@ -5992,7 +5992,7 @@
         <v>155.33186528488</v>
       </c>
       <c r="K23" t="n">
-        <v>444.02563533559</v>
+        <v>444.0256353355901</v>
       </c>
       <c r="L23" t="n">
         <v>852.1457920320287</v>
@@ -6004,7 +6004,7 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O23" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P23" t="n">
         <v>2411.208324325445</v>
@@ -6016,25 +6016,25 @@
         <v>2546.859651812185</v>
       </c>
       <c r="S23" t="n">
-        <v>2475.179799461335</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="T23" t="n">
-        <v>2359.200241045627</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="U23" t="n">
-        <v>2359.200241045627</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="V23" t="n">
-        <v>2128.89554677274</v>
+        <v>2228.996123543793</v>
       </c>
       <c r="W23" t="n">
-        <v>2128.89554677274</v>
+        <v>1973.135773232565</v>
       </c>
       <c r="X23" t="n">
-        <v>2128.89554677274</v>
+        <v>1697.780212585229</v>
       </c>
       <c r="Y23" t="n">
-        <v>1842.028271179749</v>
+        <v>1410.912936992238</v>
       </c>
     </row>
     <row r="24">
@@ -6053,16 +6053,16 @@
         <v>620.3125814681537</v>
       </c>
       <c r="E24" t="n">
-        <v>473.2845715250248</v>
+        <v>473.2845715250249</v>
       </c>
       <c r="F24" t="n">
-        <v>338.5907734748992</v>
+        <v>338.5907734748993</v>
       </c>
       <c r="G24" t="n">
         <v>210.0706464752944</v>
       </c>
       <c r="H24" t="n">
-        <v>112.1452333009286</v>
+        <v>112.1452333009287</v>
       </c>
       <c r="I24" t="n">
         <v>50.9371930362437</v>
@@ -6080,10 +6080,10 @@
         <v>1339.899476053437</v>
       </c>
       <c r="N24" t="n">
-        <v>1904.280993304641</v>
+        <v>1576.800617858203</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.071589143262</v>
+        <v>2017.591213696825</v>
       </c>
       <c r="P24" t="n">
         <v>2358.685409455674</v>
@@ -6147,19 +6147,19 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J25" t="n">
-        <v>108.7318568374904</v>
+        <v>108.7318568374905</v>
       </c>
       <c r="K25" t="n">
-        <v>266.7800463495825</v>
+        <v>266.7800463495827</v>
       </c>
       <c r="L25" t="n">
-        <v>497.3941077576472</v>
+        <v>497.3941077576475</v>
       </c>
       <c r="M25" t="n">
-        <v>746.7783366411452</v>
+        <v>746.7783366411454</v>
       </c>
       <c r="N25" t="n">
-        <v>995.9532304979159</v>
+        <v>995.9532304979161</v>
       </c>
       <c r="O25" t="n">
         <v>1223.169308896843</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.26785588501</v>
+        <v>1228.851594654776</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.008677048989</v>
+        <v>1228.851594654776</v>
       </c>
       <c r="D26" t="n">
-        <v>1155.859292107383</v>
+        <v>1228.851594654776</v>
       </c>
       <c r="E26" t="n">
-        <v>867.7481520446614</v>
+        <v>940.740454592054</v>
       </c>
       <c r="F26" t="n">
-        <v>582.1354135277631</v>
+        <v>633.2638437333953</v>
       </c>
       <c r="G26" t="n">
-        <v>273.0954546765396</v>
+        <v>324.2238848821719</v>
       </c>
       <c r="H26" t="n">
-        <v>50.9371930362437</v>
+        <v>102.065623241876</v>
       </c>
       <c r="I26" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J26" t="n">
-        <v>155.3318652848801</v>
+        <v>155.3318652848802</v>
       </c>
       <c r="K26" t="n">
-        <v>444.0256353355901</v>
+        <v>444.0256353355903</v>
       </c>
       <c r="L26" t="n">
-        <v>852.1457920320288</v>
+        <v>852.1457920320289</v>
       </c>
       <c r="M26" t="n">
         <v>1312.407761053182</v>
@@ -6253,25 +6253,25 @@
         <v>2546.859651812185</v>
       </c>
       <c r="S26" t="n">
-        <v>2546.859651812185</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="T26" t="n">
-        <v>2546.859651812185</v>
+        <v>2359.200241045627</v>
       </c>
       <c r="U26" t="n">
-        <v>2546.859651812185</v>
+        <v>2359.200241045627</v>
       </c>
       <c r="V26" t="n">
-        <v>2546.859651812185</v>
+        <v>2334.303740893179</v>
       </c>
       <c r="W26" t="n">
-        <v>2546.859651812185</v>
+        <v>2078.443390581951</v>
       </c>
       <c r="X26" t="n">
-        <v>2271.504091164849</v>
+        <v>1803.087829934615</v>
       </c>
       <c r="Y26" t="n">
-        <v>1984.636815571859</v>
+        <v>1516.220554341624</v>
       </c>
     </row>
     <row r="27">
@@ -6290,31 +6290,31 @@
         <v>620.3125814681537</v>
       </c>
       <c r="E27" t="n">
-        <v>473.2845715250248</v>
+        <v>473.2845715250249</v>
       </c>
       <c r="F27" t="n">
-        <v>338.5907734748992</v>
+        <v>338.5907734748993</v>
       </c>
       <c r="G27" t="n">
         <v>210.0706464752944</v>
       </c>
       <c r="H27" t="n">
-        <v>112.1452333009286</v>
+        <v>112.1452333009287</v>
       </c>
       <c r="I27" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J27" t="n">
-        <v>50.9371930362437</v>
+        <v>130.4862514560598</v>
       </c>
       <c r="K27" t="n">
-        <v>313.4058232591686</v>
+        <v>392.9548816789847</v>
       </c>
       <c r="L27" t="n">
-        <v>475.6394465677706</v>
+        <v>803.1198220142078</v>
       </c>
       <c r="M27" t="n">
-        <v>1012.419100606999</v>
+        <v>1339.899476053437</v>
       </c>
       <c r="N27" t="n">
         <v>1576.800617858203</v>
@@ -6420,10 +6420,10 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V28" t="n">
-        <v>893.2078144432946</v>
+        <v>893.2078144432945</v>
       </c>
       <c r="W28" t="n">
-        <v>713.7259927918648</v>
+        <v>713.7259927918647</v>
       </c>
       <c r="X28" t="n">
         <v>589.1481085184116</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1162.131075501567</v>
+        <v>1272.842717956085</v>
       </c>
       <c r="C29" t="n">
-        <v>886.8718966655449</v>
+        <v>1272.842717956085</v>
       </c>
       <c r="D29" t="n">
-        <v>620.7225117239395</v>
+        <v>1006.69333301448</v>
       </c>
       <c r="E29" t="n">
-        <v>332.6113716612175</v>
+        <v>718.5821929517581</v>
       </c>
       <c r="F29" t="n">
-        <v>332.6113716612175</v>
+        <v>411.1055820930995</v>
       </c>
       <c r="G29" t="n">
-        <v>324.2238848821719</v>
+        <v>102.065623241876</v>
       </c>
       <c r="H29" t="n">
         <v>102.065623241876</v>
       </c>
       <c r="I29" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J29" t="n">
-        <v>155.33186528488</v>
+        <v>155.3318652848798</v>
       </c>
       <c r="K29" t="n">
-        <v>444.0256353355901</v>
+        <v>444.0256353355899</v>
       </c>
       <c r="L29" t="n">
-        <v>852.1457920320287</v>
+        <v>852.1457920320283</v>
       </c>
       <c r="M29" t="n">
         <v>1312.407761053182</v>
@@ -6478,37 +6478,37 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O29" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P29" t="n">
-        <v>2411.208324325445</v>
+        <v>2411.208324325444</v>
       </c>
       <c r="Q29" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="R29" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="S29" t="n">
-        <v>2475.179799461335</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="T29" t="n">
-        <v>2359.200241045627</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="U29" t="n">
-        <v>2211.020640419866</v>
+        <v>2282.700492770715</v>
       </c>
       <c r="V29" t="n">
-        <v>1980.715946146978</v>
+        <v>2052.395798497828</v>
       </c>
       <c r="W29" t="n">
-        <v>1724.85559583575</v>
+        <v>1835.065554196412</v>
       </c>
       <c r="X29" t="n">
-        <v>1449.500035188415</v>
+        <v>1559.709993549076</v>
       </c>
       <c r="Y29" t="n">
-        <v>1449.500035188415</v>
+        <v>1272.842717956085</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>920.8548912369869</v>
+        <v>925.1881887551751</v>
       </c>
       <c r="C30" t="n">
-        <v>759.1512184779416</v>
+        <v>763.4845159961299</v>
       </c>
       <c r="D30" t="n">
-        <v>620.3125814681537</v>
+        <v>624.6458789863419</v>
       </c>
       <c r="E30" t="n">
-        <v>473.2845715250248</v>
+        <v>477.6178690432131</v>
       </c>
       <c r="F30" t="n">
-        <v>338.5907734748992</v>
+        <v>342.9240709930875</v>
       </c>
       <c r="G30" t="n">
-        <v>210.0706464752944</v>
+        <v>214.4039439934827</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1452333009286</v>
+        <v>116.478530819117</v>
       </c>
       <c r="I30" t="n">
-        <v>50.9371930362437</v>
+        <v>55.27049055443201</v>
       </c>
       <c r="J30" t="n">
-        <v>130.4862514560598</v>
+        <v>134.8195489742481</v>
       </c>
       <c r="K30" t="n">
-        <v>130.4862514560598</v>
+        <v>397.288179197173</v>
       </c>
       <c r="L30" t="n">
-        <v>540.6511917912828</v>
+        <v>807.4531195323959</v>
       </c>
       <c r="M30" t="n">
-        <v>1012.419100606999</v>
+        <v>1344.232773571624</v>
       </c>
       <c r="N30" t="n">
-        <v>1576.800617858203</v>
+        <v>1581.133915376392</v>
       </c>
       <c r="O30" t="n">
-        <v>2017.591213696825</v>
+        <v>2021.924511215013</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.685409455674</v>
+        <v>2363.018706973863</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.526354293996</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="R30" t="n">
-        <v>2495.679488301122</v>
+        <v>2500.01278581931</v>
       </c>
       <c r="S30" t="n">
-        <v>2346.750437972034</v>
+        <v>2351.083735490223</v>
       </c>
       <c r="T30" t="n">
-        <v>2158.905223462426</v>
+        <v>2163.238520980614</v>
       </c>
       <c r="U30" t="n">
-        <v>1940.42413980923</v>
+        <v>1944.757437327419</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.028517257564</v>
+        <v>1716.361814775752</v>
       </c>
       <c r="W30" t="n">
-        <v>1470.712648490874</v>
+        <v>1475.045946009062</v>
       </c>
       <c r="X30" t="n">
-        <v>1272.795660368669</v>
+        <v>1277.128957886857</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.274334018248</v>
+        <v>1084.607631536436</v>
       </c>
     </row>
     <row r="31">
@@ -6609,25 +6609,25 @@
         <v>242.2336032329262</v>
       </c>
       <c r="F31" t="n">
-        <v>196.4275280898743</v>
+        <v>196.4275280898744</v>
       </c>
       <c r="G31" t="n">
-        <v>134.3570521932029</v>
+        <v>134.357052193203</v>
       </c>
       <c r="H31" t="n">
         <v>83.21216553467301</v>
       </c>
       <c r="I31" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J31" t="n">
-        <v>108.7318568374904</v>
+        <v>108.7318568374903</v>
       </c>
       <c r="K31" t="n">
-        <v>266.7800463495825</v>
+        <v>266.7800463495824</v>
       </c>
       <c r="L31" t="n">
-        <v>497.3941077576472</v>
+        <v>497.3941077576474</v>
       </c>
       <c r="M31" t="n">
         <v>746.7783366411452</v>
@@ -6657,16 +6657,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V31" t="n">
-        <v>893.2078144432945</v>
+        <v>893.2078144432946</v>
       </c>
       <c r="W31" t="n">
-        <v>713.7259927918647</v>
+        <v>713.7259927918649</v>
       </c>
       <c r="X31" t="n">
-        <v>589.1481085184115</v>
+        <v>589.1481085184117</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.7875295418597</v>
+        <v>473.7875295418598</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1177.248346532313</v>
+        <v>1187.524368737723</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.248346532313</v>
+        <v>1187.524368737723</v>
       </c>
       <c r="D32" t="n">
-        <v>911.0989615907081</v>
+        <v>921.3749837961174</v>
       </c>
       <c r="E32" t="n">
-        <v>622.9878215279861</v>
+        <v>633.2638437333953</v>
       </c>
       <c r="F32" t="n">
-        <v>622.9878215279861</v>
+        <v>633.2638437333953</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9478626767626</v>
+        <v>324.2238848821719</v>
       </c>
       <c r="H32" t="n">
         <v>102.065623241876</v>
       </c>
       <c r="I32" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J32" t="n">
         <v>155.33186528488</v>
@@ -6724,28 +6724,28 @@
         <v>2546.859651812185</v>
       </c>
       <c r="R32" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="S32" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="T32" t="n">
         <v>2430.880093396477</v>
       </c>
       <c r="U32" t="n">
-        <v>2282.700492770716</v>
+        <v>2282.700492770715</v>
       </c>
       <c r="V32" t="n">
-        <v>2282.700492770716</v>
+        <v>2052.395798497828</v>
       </c>
       <c r="W32" t="n">
-        <v>2026.840142459488</v>
+        <v>2037.116164664897</v>
       </c>
       <c r="X32" t="n">
-        <v>1751.484581812152</v>
+        <v>1761.760604017562</v>
       </c>
       <c r="Y32" t="n">
-        <v>1464.617306219161</v>
+        <v>1474.893328424571</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>112.1452333009286</v>
       </c>
       <c r="I33" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J33" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="K33" t="n">
-        <v>65.47450623254764</v>
+        <v>313.4058232591686</v>
       </c>
       <c r="L33" t="n">
-        <v>475.6394465677706</v>
+        <v>723.5707635943916</v>
       </c>
       <c r="M33" t="n">
-        <v>1012.419100606999</v>
+        <v>1260.35041763362</v>
       </c>
       <c r="N33" t="n">
         <v>1576.800617858203</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1451.2506290466</v>
+        <v>396.9067406886511</v>
       </c>
       <c r="C34" t="n">
-        <v>1388.309239339452</v>
+        <v>333.9653509815025</v>
       </c>
       <c r="D34" t="n">
-        <v>1341.911925998385</v>
+        <v>287.5680376404363</v>
       </c>
       <c r="E34" t="n">
-        <v>1296.577491590875</v>
+        <v>242.2336032329262</v>
       </c>
       <c r="F34" t="n">
-        <v>1250.771416447823</v>
+        <v>196.4275280898743</v>
       </c>
       <c r="G34" t="n">
-        <v>1188.700940551152</v>
+        <v>134.3570521932029</v>
       </c>
       <c r="H34" t="n">
-        <v>1137.556053892622</v>
+        <v>83.21216553467301</v>
       </c>
       <c r="I34" t="n">
-        <v>1105.281081394193</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J34" t="n">
-        <v>1163.075745195439</v>
+        <v>108.7318568374903</v>
       </c>
       <c r="K34" t="n">
-        <v>1321.123934707532</v>
+        <v>266.7800463495824</v>
       </c>
       <c r="L34" t="n">
-        <v>1551.737996115596</v>
+        <v>497.3941077576475</v>
       </c>
       <c r="M34" t="n">
-        <v>1801.122224999094</v>
+        <v>746.7783366411454</v>
       </c>
       <c r="N34" t="n">
-        <v>2050.297118855865</v>
+        <v>995.9532304979161</v>
       </c>
       <c r="O34" t="n">
-        <v>2277.513197254792</v>
+        <v>1223.169308896843</v>
       </c>
       <c r="P34" t="n">
-        <v>2465.741295969725</v>
+        <v>1411.397407611776</v>
       </c>
       <c r="Q34" t="n">
-        <v>2546.859651812185</v>
+        <v>1492.515763454236</v>
       </c>
       <c r="R34" t="n">
-        <v>2511.867278482326</v>
+        <v>1457.523390124377</v>
       </c>
       <c r="S34" t="n">
-        <v>2407.876516604071</v>
+        <v>1353.532628246122</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.118558387508</v>
+        <v>1227.774670029559</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.61242741165</v>
+        <v>1047.268539053701</v>
       </c>
       <c r="V34" t="n">
-        <v>1947.551702801244</v>
+        <v>893.2078144432946</v>
       </c>
       <c r="W34" t="n">
-        <v>1768.069881149814</v>
+        <v>713.7259927918648</v>
       </c>
       <c r="X34" t="n">
-        <v>1643.491996876361</v>
+        <v>589.1481085184116</v>
       </c>
       <c r="Y34" t="n">
-        <v>1528.131417899809</v>
+        <v>473.7875295418598</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1521.179887539264</v>
+        <v>875.2637999085757</v>
       </c>
       <c r="C35" t="n">
-        <v>1495.000979596381</v>
+        <v>697.6533741632566</v>
       </c>
       <c r="D35" t="n">
-        <v>1228.851594654776</v>
+        <v>697.6533741632566</v>
       </c>
       <c r="E35" t="n">
-        <v>940.740454592054</v>
+        <v>409.5422341005346</v>
       </c>
       <c r="F35" t="n">
-        <v>633.2638437333953</v>
+        <v>102.065623241876</v>
       </c>
       <c r="G35" t="n">
-        <v>324.2238848821719</v>
+        <v>102.065623241876</v>
       </c>
       <c r="H35" t="n">
         <v>102.065623241876</v>
       </c>
       <c r="I35" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J35" t="n">
-        <v>155.3318652848798</v>
+        <v>155.33186528488</v>
       </c>
       <c r="K35" t="n">
-        <v>444.0256353355898</v>
+        <v>444.0256353355901</v>
       </c>
       <c r="L35" t="n">
-        <v>852.1457920320283</v>
+        <v>852.1457920320287</v>
       </c>
       <c r="M35" t="n">
         <v>1312.407761053182</v>
@@ -6952,37 +6952,37 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O35" t="n">
-        <v>2128.162799782563</v>
+        <v>2128.162799782564</v>
       </c>
       <c r="P35" t="n">
-        <v>2411.208324325444</v>
+        <v>2411.208324325445</v>
       </c>
       <c r="Q35" t="n">
-        <v>2546.859651812184</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="R35" t="n">
-        <v>2546.859651812184</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="S35" t="n">
-        <v>2546.859651812184</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="T35" t="n">
-        <v>2430.880093396477</v>
+        <v>2359.200241045627</v>
       </c>
       <c r="U35" t="n">
-        <v>2282.700492770715</v>
+        <v>2211.020640419866</v>
       </c>
       <c r="V35" t="n">
-        <v>2052.395798497828</v>
+        <v>1980.715946146978</v>
       </c>
       <c r="W35" t="n">
-        <v>1796.5354481866</v>
+        <v>1724.85559583575</v>
       </c>
       <c r="X35" t="n">
-        <v>1521.179887539264</v>
+        <v>1449.500035188415</v>
       </c>
       <c r="Y35" t="n">
-        <v>1521.179887539264</v>
+        <v>1162.632759595424</v>
       </c>
     </row>
     <row r="36">
@@ -7001,31 +7001,31 @@
         <v>620.3125814681537</v>
       </c>
       <c r="E36" t="n">
-        <v>473.2845715250248</v>
+        <v>473.2845715250249</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5907734748992</v>
+        <v>338.5907734748993</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0706464752943</v>
+        <v>210.0706464752944</v>
       </c>
       <c r="H36" t="n">
-        <v>112.1452333009286</v>
+        <v>112.1452333009287</v>
       </c>
       <c r="I36" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J36" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="K36" t="n">
-        <v>65.47450623254764</v>
+        <v>313.4058232591686</v>
       </c>
       <c r="L36" t="n">
-        <v>475.6394465677706</v>
+        <v>723.5707635943916</v>
       </c>
       <c r="M36" t="n">
-        <v>1012.419100606999</v>
+        <v>1260.35041763362</v>
       </c>
       <c r="N36" t="n">
         <v>1576.800617858203</v>
@@ -7092,25 +7092,25 @@
         <v>83.21216553467301</v>
       </c>
       <c r="I37" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J37" t="n">
-        <v>108.7318568374903</v>
+        <v>108.7318568374905</v>
       </c>
       <c r="K37" t="n">
-        <v>266.7800463495824</v>
+        <v>266.7800463495827</v>
       </c>
       <c r="L37" t="n">
-        <v>497.3941077576472</v>
+        <v>497.3941077576475</v>
       </c>
       <c r="M37" t="n">
-        <v>746.7783366411452</v>
+        <v>746.7783366411454</v>
       </c>
       <c r="N37" t="n">
-        <v>995.9532304979159</v>
+        <v>995.9532304979161</v>
       </c>
       <c r="O37" t="n">
-        <v>1223.169308896842</v>
+        <v>1223.169308896843</v>
       </c>
       <c r="P37" t="n">
         <v>1411.397407611776</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>946.943652259426</v>
+        <v>1464.617306219161</v>
       </c>
       <c r="C38" t="n">
-        <v>946.943652259426</v>
+        <v>1189.35812738314</v>
       </c>
       <c r="D38" t="n">
-        <v>680.7942673178206</v>
+        <v>923.2087424415345</v>
       </c>
       <c r="E38" t="n">
-        <v>392.6831272550986</v>
+        <v>635.0976023788124</v>
       </c>
       <c r="F38" t="n">
-        <v>392.6831272550986</v>
+        <v>327.6209915201538</v>
       </c>
       <c r="G38" t="n">
-        <v>102.065623241876</v>
+        <v>324.2238848821719</v>
       </c>
       <c r="H38" t="n">
         <v>102.065623241876</v>
@@ -7174,13 +7174,13 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J38" t="n">
-        <v>155.33186528488</v>
+        <v>155.3318652848801</v>
       </c>
       <c r="K38" t="n">
-        <v>444.02563533559</v>
+        <v>444.0256353355899</v>
       </c>
       <c r="L38" t="n">
-        <v>852.1457920320287</v>
+        <v>852.1457920320286</v>
       </c>
       <c r="M38" t="n">
         <v>1312.407761053182</v>
@@ -7210,16 +7210,16 @@
         <v>2282.700492770716</v>
       </c>
       <c r="V38" t="n">
-        <v>2052.395798497828</v>
+        <v>2282.700492770716</v>
       </c>
       <c r="W38" t="n">
-        <v>1796.5354481866</v>
+        <v>2026.840142459488</v>
       </c>
       <c r="X38" t="n">
-        <v>1521.179887539265</v>
+        <v>1751.484581812152</v>
       </c>
       <c r="Y38" t="n">
-        <v>1234.312611946274</v>
+        <v>1464.617306219161</v>
       </c>
     </row>
     <row r="39">
@@ -7238,16 +7238,16 @@
         <v>620.3125814681537</v>
       </c>
       <c r="E39" t="n">
-        <v>473.2845715250248</v>
+        <v>473.2845715250249</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5907734748992</v>
+        <v>338.5907734748993</v>
       </c>
       <c r="G39" t="n">
         <v>210.0706464752944</v>
       </c>
       <c r="H39" t="n">
-        <v>112.1452333009286</v>
+        <v>112.1452333009287</v>
       </c>
       <c r="I39" t="n">
         <v>50.9371930362437</v>
@@ -7265,13 +7265,13 @@
         <v>1339.899476053437</v>
       </c>
       <c r="N39" t="n">
-        <v>1904.280993304641</v>
+        <v>1576.800617858203</v>
       </c>
       <c r="O39" t="n">
-        <v>2201.432158535147</v>
+        <v>2017.591213696825</v>
       </c>
       <c r="P39" t="n">
-        <v>2542.526354293996</v>
+        <v>2358.685409455674</v>
       </c>
       <c r="Q39" t="n">
         <v>2542.526354293996</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>396.9067406886513</v>
+        <v>396.9067406886511</v>
       </c>
       <c r="C40" t="n">
-        <v>333.9653509815027</v>
+        <v>333.9653509815025</v>
       </c>
       <c r="D40" t="n">
-        <v>287.5680376404365</v>
+        <v>287.5680376404363</v>
       </c>
       <c r="E40" t="n">
-        <v>242.2336032329264</v>
+        <v>242.2336032329262</v>
       </c>
       <c r="F40" t="n">
-        <v>196.4275280898746</v>
+        <v>196.4275280898743</v>
       </c>
       <c r="G40" t="n">
-        <v>134.357052193203</v>
+        <v>134.3570521932029</v>
       </c>
       <c r="H40" t="n">
         <v>83.21216553467301</v>
@@ -7335,16 +7335,16 @@
         <v>108.7318568374904</v>
       </c>
       <c r="K40" t="n">
-        <v>266.7800463495823</v>
+        <v>266.7800463495825</v>
       </c>
       <c r="L40" t="n">
-        <v>497.3941077576471</v>
+        <v>497.3941077576472</v>
       </c>
       <c r="M40" t="n">
-        <v>746.778336641145</v>
+        <v>746.7783366411452</v>
       </c>
       <c r="N40" t="n">
-        <v>995.9532304979157</v>
+        <v>995.9532304979159</v>
       </c>
       <c r="O40" t="n">
         <v>1223.169308896842</v>
@@ -7356,7 +7356,7 @@
         <v>1492.515763454236</v>
       </c>
       <c r="R40" t="n">
-        <v>1457.523390124376</v>
+        <v>1457.523390124377</v>
       </c>
       <c r="S40" t="n">
         <v>1353.532628246122</v>
@@ -7368,16 +7368,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V40" t="n">
-        <v>893.2078144432949</v>
+        <v>893.2078144432946</v>
       </c>
       <c r="W40" t="n">
-        <v>713.7259927918651</v>
+        <v>713.7259927918648</v>
       </c>
       <c r="X40" t="n">
-        <v>589.148108518412</v>
+        <v>589.1481085184116</v>
       </c>
       <c r="Y40" t="n">
-        <v>473.7875295418601</v>
+        <v>473.7875295418598</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1335.221341894101</v>
+        <v>1312.772863447955</v>
       </c>
       <c r="C41" t="n">
-        <v>953.2875832269086</v>
+        <v>930.8391047807625</v>
       </c>
       <c r="D41" t="n">
-        <v>953.2875832269086</v>
+        <v>558.015140007986</v>
       </c>
       <c r="E41" t="n">
-        <v>953.2875832269086</v>
+        <v>465.0883837260733</v>
       </c>
       <c r="F41" t="n">
-        <v>953.2875832269086</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="G41" t="n">
-        <v>537.573044544514</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="H41" t="n">
-        <v>208.7402030730471</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I41" t="n">
-        <v>50.93719303624372</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J41" t="n">
-        <v>155.3318652848801</v>
+        <v>155.3318652848798</v>
       </c>
       <c r="K41" t="n">
-        <v>444.0256353355902</v>
+        <v>444.0256353355896</v>
       </c>
       <c r="L41" t="n">
-        <v>852.1457920320288</v>
+        <v>852.1457920320283</v>
       </c>
       <c r="M41" t="n">
-        <v>1312.407761053183</v>
+        <v>1312.407761053182</v>
       </c>
       <c r="N41" t="n">
-        <v>1758.846421527934</v>
+        <v>1758.846421527933</v>
       </c>
       <c r="O41" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P41" t="n">
-        <v>2411.208324325446</v>
+        <v>2411.208324325445</v>
       </c>
       <c r="Q41" t="n">
-        <v>2546.859651812186</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="R41" t="n">
-        <v>2546.859651812186</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="S41" t="n">
-        <v>2546.859651812186</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="T41" t="n">
-        <v>2324.205513565307</v>
+        <v>2324.205513565306</v>
       </c>
       <c r="U41" t="n">
-        <v>2069.351333108374</v>
+        <v>2069.351333108373</v>
       </c>
       <c r="V41" t="n">
-        <v>1732.372059004315</v>
+        <v>2069.351333108373</v>
       </c>
       <c r="W41" t="n">
-        <v>1369.837128861916</v>
+        <v>1706.816402965974</v>
       </c>
       <c r="X41" t="n">
-        <v>1369.837128861916</v>
+        <v>1706.816402965974</v>
       </c>
       <c r="Y41" t="n">
-        <v>1369.837128861916</v>
+        <v>1706.816402965974</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>112.1452333009287</v>
       </c>
       <c r="I42" t="n">
-        <v>50.93719303624372</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J42" t="n">
         <v>130.4862514560598</v>
@@ -7502,13 +7502,13 @@
         <v>1339.899476053437</v>
       </c>
       <c r="N42" t="n">
-        <v>1760.641562696525</v>
+        <v>1576.800617858203</v>
       </c>
       <c r="O42" t="n">
-        <v>2201.432158535147</v>
+        <v>2017.591213696825</v>
       </c>
       <c r="P42" t="n">
-        <v>2542.526354293996</v>
+        <v>2358.685409455674</v>
       </c>
       <c r="Q42" t="n">
         <v>2542.526354293996</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.8190351569153</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="C43" t="n">
-        <v>100.8190351569153</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="D43" t="n">
-        <v>100.8190351569153</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="E43" t="n">
-        <v>100.8190351569153</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="F43" t="n">
-        <v>50.93719303624372</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="G43" t="n">
-        <v>50.93719303624372</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="H43" t="n">
-        <v>50.93719303624372</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I43" t="n">
-        <v>50.93719303624372</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J43" t="n">
-        <v>50.93719303624372</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="K43" t="n">
         <v>104.4336268558051</v>
@@ -7593,28 +7593,28 @@
         <v>726.292209655345</v>
       </c>
       <c r="R43" t="n">
-        <v>726.292209655345</v>
+        <v>584.6252564943146</v>
       </c>
       <c r="S43" t="n">
-        <v>515.6268679459193</v>
+        <v>584.6252564943146</v>
       </c>
       <c r="T43" t="n">
-        <v>515.6268679459193</v>
+        <v>584.6252564943146</v>
       </c>
       <c r="U43" t="n">
-        <v>515.6268679459193</v>
+        <v>584.6252564943146</v>
       </c>
       <c r="V43" t="n">
-        <v>515.6268679459193</v>
+        <v>323.8899520527372</v>
       </c>
       <c r="W43" t="n">
-        <v>515.6268679459193</v>
+        <v>323.8899520527372</v>
       </c>
       <c r="X43" t="n">
-        <v>284.3744038412951</v>
+        <v>323.8899520527372</v>
       </c>
       <c r="Y43" t="n">
-        <v>284.3744038412951</v>
+        <v>234.4925617206235</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>909.3694809744121</v>
+        <v>1568.128727998745</v>
       </c>
       <c r="C44" t="n">
-        <v>909.3694809744121</v>
+        <v>1275.588642302361</v>
       </c>
       <c r="D44" t="n">
-        <v>536.5455162016357</v>
+        <v>1275.588642302361</v>
       </c>
       <c r="E44" t="n">
-        <v>536.5455162016357</v>
+        <v>880.802922408468</v>
       </c>
       <c r="F44" t="n">
         <v>466.6517317186383</v>
@@ -7648,13 +7648,13 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J44" t="n">
-        <v>155.3318652848798</v>
+        <v>155.33186528488</v>
       </c>
       <c r="K44" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355901</v>
       </c>
       <c r="L44" t="n">
-        <v>852.1457920320286</v>
+        <v>852.1457920320287</v>
       </c>
       <c r="M44" t="n">
         <v>1312.407761053182</v>
@@ -7663,7 +7663,7 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O44" t="n">
-        <v>2128.162799782563</v>
+        <v>2128.162799782564</v>
       </c>
       <c r="P44" t="n">
         <v>2411.208324325445</v>
@@ -7672,28 +7672,28 @@
         <v>2546.859651812185</v>
       </c>
       <c r="R44" t="n">
-        <v>2480.685019658434</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="S44" t="n">
-        <v>2302.330587476412</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.330587476412</v>
+        <v>2324.205513565306</v>
       </c>
       <c r="U44" t="n">
-        <v>2047.47640701948</v>
+        <v>2324.205513565306</v>
       </c>
       <c r="V44" t="n">
-        <v>2047.47640701948</v>
+        <v>2324.205513565306</v>
       </c>
       <c r="W44" t="n">
-        <v>1684.941476877081</v>
+        <v>1961.670583422907</v>
       </c>
       <c r="X44" t="n">
-        <v>1302.911336398574</v>
+        <v>1961.670583422907</v>
       </c>
       <c r="Y44" t="n">
-        <v>909.3694809744121</v>
+        <v>1568.128727998745</v>
       </c>
     </row>
     <row r="45">
@@ -7712,31 +7712,31 @@
         <v>620.3125814681537</v>
       </c>
       <c r="E45" t="n">
-        <v>473.2845715250248</v>
+        <v>473.2845715250249</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5907734748992</v>
+        <v>338.5907734748993</v>
       </c>
       <c r="G45" t="n">
         <v>210.0706464752944</v>
       </c>
       <c r="H45" t="n">
-        <v>112.1452333009286</v>
+        <v>112.1452333009287</v>
       </c>
       <c r="I45" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J45" t="n">
-        <v>50.9371930362437</v>
+        <v>130.4862514560598</v>
       </c>
       <c r="K45" t="n">
-        <v>65.47450623254764</v>
+        <v>392.9548816789847</v>
       </c>
       <c r="L45" t="n">
-        <v>475.6394465677706</v>
+        <v>803.1198220142078</v>
       </c>
       <c r="M45" t="n">
-        <v>1012.419100606999</v>
+        <v>1339.899476053437</v>
       </c>
       <c r="N45" t="n">
         <v>1576.800617858203</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.7368409709652</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="C46" t="n">
-        <v>542.7368409709652</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="D46" t="n">
-        <v>542.7368409709652</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="E46" t="n">
-        <v>542.7368409709652</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="F46" t="n">
-        <v>390.2561859967423</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5111302688999</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="H46" t="n">
-        <v>63.69166377919888</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I46" t="n">
-        <v>63.69166377919888</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J46" t="n">
         <v>50.9371930362437</v>
@@ -7833,25 +7833,25 @@
         <v>726.292209655345</v>
       </c>
       <c r="S46" t="n">
-        <v>726.292209655345</v>
+        <v>515.6268679459193</v>
       </c>
       <c r="T46" t="n">
-        <v>726.292209655345</v>
+        <v>515.6268679459193</v>
       </c>
       <c r="U46" t="n">
-        <v>726.292209655345</v>
+        <v>515.6268679459193</v>
       </c>
       <c r="V46" t="n">
-        <v>726.292209655345</v>
+        <v>515.6268679459193</v>
       </c>
       <c r="W46" t="n">
-        <v>726.292209655345</v>
+        <v>234.4925617206235</v>
       </c>
       <c r="X46" t="n">
-        <v>726.292209655345</v>
+        <v>234.4925617206235</v>
       </c>
       <c r="Y46" t="n">
-        <v>726.292209655345</v>
+        <v>234.4925617206235</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>124.1300184260142</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>129.0110038467633</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,16 +8294,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>525.6967347807335</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
@@ -8312,7 +8312,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8531,10 +8531,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>110.8430489735533</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8546,13 +8546,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,19 +8768,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>83.56576168009096</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>151.304190867793</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>372.7094128823562</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.56576168009096</v>
       </c>
       <c r="K15" t="n">
-        <v>198.7144741687609</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9017,7 +9017,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>372.7094128823562</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.40254997749079</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9248,10 +9248,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>151.3041908677928</v>
       </c>
       <c r="M18" t="n">
-        <v>274.6283248482957</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>98.24991642383232</v>
+        <v>83.56576168009096</v>
       </c>
       <c r="K21" t="n">
-        <v>78.68497960834725</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9491,7 +9491,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>372.7094128823562</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9728,13 +9728,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>292.3568286199153</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>83.21334120521387</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9953,19 +9953,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>83.56576168009096</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>231.6567751302333</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>292.3568286199153</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10193,16 +10193,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>78.68497960834725</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>539.7481533563008</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>292.3568286199157</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10430,7 +10430,7 @@
         <v>83.56576168009096</v>
       </c>
       <c r="K33" t="n">
-        <v>93.36913435208861</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10439,7 +10439,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>372.7094128823562</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10667,7 +10667,7 @@
         <v>83.56576168009096</v>
       </c>
       <c r="K36" t="n">
-        <v>93.36913435208861</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10676,7 +10676,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>372.7094128823562</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10913,16 +10913,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>292.3568286199153</v>
       </c>
       <c r="O39" t="n">
-        <v>366.9306811121569</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.40254997749079</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11068,7 +11068,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>584.3675935406832</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11150,7 +11150,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>478.0547526990282</v>
+        <v>292.3568286199153</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.40254997749079</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11305,7 +11305,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406824</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>83.56576168009096</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>93.36913435208861</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11387,7 +11387,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>292.3568286199153</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>272.5065870476614</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.41004637759855</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>285.2300286620948</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>142.4992982051397</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>305.9495592627113</v>
       </c>
       <c r="H11" t="n">
         <v>219.9366790238929</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.9630538273417</v>
+        <v>70.96305382734168</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>302.5864236911095</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.9630538273417</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>228.0016473301587</v>
       </c>
       <c r="W14" t="n">
-        <v>238.7449379480649</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>272.6020050408622</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>285.2300286620948</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>68.89582623464395</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>70.12725205967853</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>228.0016473301587</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>283.998602837061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C20" t="n">
-        <v>272.5065870476614</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>285.2300286620948</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.21605919074949</v>
       </c>
       <c r="U20" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>194.2399982305617</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>272.6020050408622</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>213.4448384701072</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>285.2300286620948</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>304.401844750072</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.9630538273417</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>146.6978046195039</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>28.13651717600109</v>
       </c>
       <c r="W23" t="n">
-        <v>253.3017468081156</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>272.6020050408622</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.64523361834267</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.61714590357597</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.9630538273417</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>114.8197628315509</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>146.6978046195039</v>
       </c>
       <c r="V26" t="n">
-        <v>228.0016473301587</v>
+        <v>203.3541121792348</v>
       </c>
       <c r="W26" t="n">
-        <v>253.3017468081156</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>304.401844750072</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>297.6459473514561</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>219.9366790238929</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.9630538273417</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>38.14480494971369</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>283.998602837061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>10.17326198335522</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>228.0016473301587</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>238.1749093135143</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284.4952700899796</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>246.589468184207</v>
+        <v>96.67226555979539</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>305.9495592627113</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>219.9366790238929</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.9630538273417</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>283.998602837061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C38" t="n">
-        <v>272.5065870476614</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>304.401844750072</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>18.2382302896209</v>
+        <v>302.5864236911091</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9366790238929</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>228.0016473301587</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>355.8334750247019</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>298.8403739758606</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.5573932955706</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.5445130567522</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>156.2249799364353</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S41" t="n">
         <v>176.5708878602011</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>101.5728247250158</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>167.057605170564</v>
@@ -25833,10 +25833,10 @@
         <v>23.67010085865765</v>
       </c>
       <c r="R43" t="n">
-        <v>140.25028362942</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>208.5586882923314</v>
       </c>
       <c r="T43" t="n">
         <v>230.1082126672571</v>
@@ -25845,16 +25845,16 @@
         <v>284.3089036989585</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>131.3113907908531</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>88.49973624110072</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>340.814832144764</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>176.5708878602011</v>
       </c>
       <c r="T44" t="n">
-        <v>220.4275968644102</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3056386523632</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.057605170564</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.241271824804</v>
       </c>
       <c r="I46" t="n">
         <v>137.5600568063044</v>
       </c>
       <c r="J46" t="n">
-        <v>34.6024597132462</v>
+        <v>47.22938574877183</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>140.25028362942</v>
       </c>
       <c r="S46" t="n">
-        <v>208.5586882923314</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.1082126672571</v>
@@ -26085,7 +26085,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>4.971874304732069</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650043.749516322</v>
+        <v>650043.7495163223</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650043.7495163223</v>
+        <v>650043.7495163222</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650043.7495163223</v>
+        <v>650043.7495163222</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650043.7495163223</v>
+        <v>650043.7495163222</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477449.8070966798</v>
+        <v>477449.8070966796</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>652480.4514200549</v>
+        <v>652480.4514200548</v>
       </c>
       <c r="C2" t="n">
-        <v>652480.4514200549</v>
+        <v>652480.4514200548</v>
       </c>
       <c r="D2" t="n">
-        <v>652480.4514200548</v>
+        <v>652480.4514200545</v>
       </c>
       <c r="E2" t="n">
         <v>592530.5523385102</v>
       </c>
       <c r="F2" t="n">
-        <v>592530.5523385103</v>
+        <v>592530.5523385095</v>
       </c>
       <c r="G2" t="n">
-        <v>592530.5523385095</v>
+        <v>592530.5523385096</v>
       </c>
       <c r="H2" t="n">
-        <v>592530.5523385094</v>
+        <v>592530.5523385096</v>
       </c>
       <c r="I2" t="n">
-        <v>592530.5523385095</v>
+        <v>592530.5523385096</v>
       </c>
       <c r="J2" t="n">
         <v>592530.5523385103</v>
       </c>
       <c r="K2" t="n">
-        <v>592530.5523385102</v>
+        <v>592530.5523385096</v>
       </c>
       <c r="L2" t="n">
         <v>592530.5523385095</v>
       </c>
       <c r="M2" t="n">
-        <v>592530.5523385094</v>
+        <v>592530.5523385097</v>
       </c>
       <c r="N2" t="n">
         <v>592530.5523385096</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>194802.8463449462</v>
+        <v>194802.8463449463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.32519718148824e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27764.24419951023</v>
+        <v>27764.24419951029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,13 +26478,13 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>49681.37132418707</v>
+        <v>49681.37132418708</v>
       </c>
       <c r="F5" t="n">
-        <v>49681.37132418707</v>
+        <v>49681.37132418708</v>
       </c>
       <c r="G5" t="n">
-        <v>49681.37132418707</v>
+        <v>49681.37132418709</v>
       </c>
       <c r="H5" t="n">
         <v>49681.37132418709</v>
@@ -26496,19 +26496,19 @@
         <v>49681.37132418709</v>
       </c>
       <c r="K5" t="n">
+        <v>49681.37132418708</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49681.37132418708</v>
+      </c>
+      <c r="M5" t="n">
         <v>49681.37132418709</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49681.37132418709</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49681.37132418707</v>
       </c>
       <c r="N5" t="n">
         <v>49681.37132418709</v>
       </c>
       <c r="O5" t="n">
-        <v>40803.02632487864</v>
+        <v>40803.02632487863</v>
       </c>
       <c r="P5" t="n">
         <v>40803.02632487863</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202690.1249707926</v>
+        <v>202690.1249707924</v>
       </c>
       <c r="C6" t="n">
-        <v>378731.3096883199</v>
+        <v>378731.3096883198</v>
       </c>
       <c r="D6" t="n">
-        <v>378731.3096883198</v>
+        <v>378731.3096883196</v>
       </c>
       <c r="E6" t="n">
-        <v>215206.7848800472</v>
+        <v>213443.5525541193</v>
       </c>
       <c r="F6" t="n">
-        <v>410009.6312249936</v>
+        <v>408246.3988990649</v>
       </c>
       <c r="G6" t="n">
-        <v>410009.6312249927</v>
+        <v>408246.398899065</v>
       </c>
       <c r="H6" t="n">
-        <v>410009.6312249926</v>
+        <v>408246.398899065</v>
       </c>
       <c r="I6" t="n">
-        <v>410009.6312249927</v>
+        <v>408246.398899065</v>
       </c>
       <c r="J6" t="n">
-        <v>188080.9332069289</v>
+        <v>186317.7008810011</v>
       </c>
       <c r="K6" t="n">
-        <v>410009.6312249934</v>
+        <v>408246.398899065</v>
       </c>
       <c r="L6" t="n">
-        <v>410009.6312249927</v>
+        <v>408246.3988990649</v>
       </c>
       <c r="M6" t="n">
-        <v>382245.3870254824</v>
+        <v>380482.1546995548</v>
       </c>
       <c r="N6" t="n">
-        <v>410009.6312249928</v>
+        <v>408246.398899065</v>
       </c>
       <c r="O6" t="n">
-        <v>365578.0296781688</v>
+        <v>359020.5211739176</v>
       </c>
       <c r="P6" t="n">
-        <v>365578.0296781688</v>
+        <v>359020.5211739176</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.9064044648357</v>
+        <v>95.90640446483579</v>
       </c>
       <c r="F3" t="n">
         <v>95.90640446483577</v>
       </c>
       <c r="G3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="H3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="I3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="J3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="K3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="L3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="M3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="N3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="O3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
       <c r="P3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483576</v>
       </c>
     </row>
     <row r="4">
@@ -26804,7 +26804,7 @@
         <v>636.7149129530461</v>
       </c>
       <c r="G4" t="n">
-        <v>636.7149129530461</v>
+        <v>636.7149129530462</v>
       </c>
       <c r="H4" t="n">
         <v>636.7149129530462</v>
@@ -26816,19 +26816,19 @@
         <v>636.7149129530462</v>
       </c>
       <c r="K4" t="n">
+        <v>636.7149129530461</v>
+      </c>
+      <c r="L4" t="n">
+        <v>636.7149129530461</v>
+      </c>
+      <c r="M4" t="n">
         <v>636.7149129530462</v>
-      </c>
-      <c r="L4" t="n">
-        <v>636.7149129530462</v>
-      </c>
-      <c r="M4" t="n">
-        <v>636.7149129530461</v>
       </c>
       <c r="N4" t="n">
         <v>636.7149129530462</v>
       </c>
       <c r="O4" t="n">
-        <v>636.7149129530465</v>
+        <v>636.7149129530462</v>
       </c>
       <c r="P4" t="n">
         <v>636.7149129530462</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.9064044648357</v>
+        <v>95.90640446483579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>111.4117116880557</v>
+        <v>111.4117116880559</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>186.7836936830248</v>
       </c>
       <c r="F2" t="n">
-        <v>144.5902446461651</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.29295646156837</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>117.0213521633167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27557,7 +27557,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27596,13 +27596,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>14.6841360714634</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>163.3710345626841</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>184.6019319095172</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.1249941753628</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27697,7 +27697,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.227163984671492</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.603796666581331</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27794,10 +27794,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>85.97226933962094</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27830,7 +27830,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>3.214882026900511</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27903,16 +27903,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>274.5888522904319</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>373.9791561929255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>130.400351432052</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>136.9541076681128</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>11.94373757563753</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28067,13 +28067,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>40.8745217900929</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.51288583221378</v>
+        <v>65.51288583221375</v>
       </c>
       <c r="S11" t="n">
         <v>105.6078340328594</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S17" t="n">
         <v>105.6078340328594</v>
@@ -28757,7 +28757,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="N19" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328596</v>
       </c>
       <c r="O19" t="n">
         <v>105.6078340328594</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S20" t="n">
         <v>105.6078340328594</v>
@@ -29000,10 +29000,10 @@
         <v>105.6078340328594</v>
       </c>
       <c r="P22" t="n">
-        <v>105.6078340328595</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328597</v>
       </c>
       <c r="R22" t="n">
         <v>105.6078340328594</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S23" t="n">
         <v>105.6078340328594</v>
@@ -29219,7 +29219,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="J25" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328595</v>
       </c>
       <c r="K25" t="n">
         <v>105.6078340328594</v>
@@ -29234,7 +29234,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6078340328596</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="P25" t="n">
         <v>105.6078340328594</v>
@@ -29322,7 +29322,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S26" t="n">
         <v>105.6078340328594</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S29" t="n">
         <v>105.6078340328594</v>
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S32" t="n">
         <v>105.6078340328594</v>
@@ -29933,10 +29933,10 @@
         <v>105.6078340328594</v>
       </c>
       <c r="K34" t="n">
-        <v>105.6078340328597</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="L34" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328596</v>
       </c>
       <c r="M34" t="n">
         <v>105.6078340328594</v>
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S35" t="n">
         <v>105.6078340328594</v>
@@ -30167,7 +30167,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="J37" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328595</v>
       </c>
       <c r="K37" t="n">
         <v>105.6078340328594</v>
@@ -30185,7 +30185,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="P37" t="n">
-        <v>105.6078340328595</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Q37" t="n">
         <v>105.6078340328594</v>
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S38" t="n">
         <v>105.6078340328594</v>
@@ -30422,7 +30422,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="P40" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328595</v>
       </c>
       <c r="Q40" t="n">
         <v>105.6078340328594</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3855533847832588</v>
+        <v>0.3855533847832592</v>
       </c>
       <c r="H11" t="n">
-        <v>3.948548601911551</v>
+        <v>3.948548601911554</v>
       </c>
       <c r="I11" t="n">
-        <v>14.8640468668566</v>
+        <v>14.86404686685661</v>
       </c>
       <c r="J11" t="n">
-        <v>32.72336159174814</v>
+        <v>32.72336159174817</v>
       </c>
       <c r="K11" t="n">
-        <v>49.0438363696235</v>
+        <v>49.04383636962354</v>
       </c>
       <c r="L11" t="n">
-        <v>60.84321576918417</v>
+        <v>60.84321576918422</v>
       </c>
       <c r="M11" t="n">
-        <v>67.69980077582345</v>
+        <v>67.6998007758235</v>
       </c>
       <c r="N11" t="n">
-        <v>68.79525433033888</v>
+        <v>68.79525433033895</v>
       </c>
       <c r="O11" t="n">
-        <v>64.96140786040034</v>
+        <v>64.96140786040041</v>
       </c>
       <c r="P11" t="n">
-        <v>55.44305867356364</v>
+        <v>55.44305867356369</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.63542808101317</v>
+        <v>41.63542808101321</v>
       </c>
       <c r="R11" t="n">
-        <v>24.2190178068914</v>
+        <v>24.21901780689143</v>
       </c>
       <c r="S11" t="n">
-        <v>8.785797755748519</v>
+        <v>8.785797755748527</v>
       </c>
       <c r="T11" t="n">
-        <v>1.687759941888716</v>
+        <v>1.687759941888718</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0308442707826607</v>
+        <v>0.03084427078266073</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2062892473394579</v>
+        <v>0.2062892473394581</v>
       </c>
       <c r="H12" t="n">
-        <v>1.99231983614687</v>
+        <v>1.992319836146872</v>
       </c>
       <c r="I12" t="n">
-        <v>7.102502594801513</v>
+        <v>7.102502594801519</v>
       </c>
       <c r="J12" t="n">
-        <v>19.48980998657572</v>
+        <v>19.48980998657574</v>
       </c>
       <c r="K12" t="n">
-        <v>33.3111895583194</v>
+        <v>33.31118955831943</v>
       </c>
       <c r="L12" t="n">
-        <v>44.79100521728012</v>
+        <v>44.79100521728015</v>
       </c>
       <c r="M12" t="n">
-        <v>52.26899043333545</v>
+        <v>52.2689904333355</v>
       </c>
       <c r="N12" t="n">
-        <v>53.65239507887068</v>
+        <v>53.65239507887073</v>
       </c>
       <c r="O12" t="n">
-        <v>49.08145965098059</v>
+        <v>49.08145965098063</v>
       </c>
       <c r="P12" t="n">
-        <v>39.39219846783035</v>
+        <v>39.39219846783039</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.33264146740169</v>
+        <v>26.33264146740171</v>
       </c>
       <c r="R12" t="n">
-        <v>12.80802888305863</v>
+        <v>12.80802888305864</v>
       </c>
       <c r="S12" t="n">
-        <v>3.831732291590368</v>
+        <v>3.831732291590371</v>
       </c>
       <c r="T12" t="n">
-        <v>0.831490431162113</v>
+        <v>0.8314904311621137</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01357166100917487</v>
+        <v>0.01357166100917488</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1729459752644578</v>
+        <v>0.172945975264458</v>
       </c>
       <c r="H13" t="n">
-        <v>1.537646943714908</v>
+        <v>1.537646943714909</v>
       </c>
       <c r="I13" t="n">
-        <v>5.200957147043878</v>
+        <v>5.200957147043883</v>
       </c>
       <c r="J13" t="n">
-        <v>12.22728045119717</v>
+        <v>12.22728045119718</v>
       </c>
       <c r="K13" t="n">
-        <v>20.09317785345246</v>
+        <v>20.09317785345247</v>
       </c>
       <c r="L13" t="n">
-        <v>25.71234981340858</v>
+        <v>25.7123498134086</v>
       </c>
       <c r="M13" t="n">
-        <v>27.11006774077314</v>
+        <v>27.11006774077316</v>
       </c>
       <c r="N13" t="n">
-        <v>26.46545092387836</v>
+        <v>26.46545092387839</v>
       </c>
       <c r="O13" t="n">
-        <v>24.44512748556174</v>
+        <v>24.44512748556176</v>
       </c>
       <c r="P13" t="n">
-        <v>20.91702959016678</v>
+        <v>20.9170295901668</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.48186707419019</v>
+        <v>14.4818670741902</v>
       </c>
       <c r="R13" t="n">
-        <v>7.776279942345528</v>
+        <v>7.776279942345535</v>
       </c>
       <c r="S13" t="n">
-        <v>3.013976678017868</v>
+        <v>3.013976678017871</v>
       </c>
       <c r="T13" t="n">
-        <v>0.738950985220865</v>
+        <v>0.7389509852208657</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0094334168326068</v>
+        <v>0.009433416832606808</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J17" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K17" t="n">
         <v>49.04383636962353</v>
@@ -32244,16 +32244,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M17" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N17" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O17" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P17" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q17" t="n">
         <v>41.6354280810132</v>
@@ -32262,7 +32262,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S17" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T17" t="n">
         <v>1.687759941888717</v>
@@ -32308,28 +32308,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H18" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I18" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J18" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K18" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L18" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M18" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N18" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O18" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P18" t="n">
         <v>39.39219846783038</v>
@@ -32344,7 +32344,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U18" t="n">
         <v>0.01357166100917488</v>
@@ -32390,25 +32390,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I19" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J19" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K19" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L19" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M19" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N19" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O19" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P19" t="n">
         <v>20.91702959016679</v>
@@ -32417,13 +32417,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R19" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S19" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U19" t="n">
         <v>0.009433416832606806</v>
@@ -32472,7 +32472,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J20" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K20" t="n">
         <v>49.04383636962353</v>
@@ -32481,16 +32481,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M20" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N20" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O20" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P20" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q20" t="n">
         <v>41.6354280810132</v>
@@ -32499,7 +32499,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S20" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T20" t="n">
         <v>1.687759941888717</v>
@@ -32545,28 +32545,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H21" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I21" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J21" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K21" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L21" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M21" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N21" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O21" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P21" t="n">
         <v>39.39219846783038</v>
@@ -32581,7 +32581,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U21" t="n">
         <v>0.01357166100917488</v>
@@ -32627,25 +32627,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I22" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J22" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K22" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L22" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M22" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N22" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O22" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P22" t="n">
         <v>20.91702959016679</v>
@@ -32654,13 +32654,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R22" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S22" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U22" t="n">
         <v>0.009433416832606806</v>
@@ -32709,7 +32709,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J23" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K23" t="n">
         <v>49.04383636962353</v>
@@ -32718,16 +32718,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M23" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N23" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O23" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P23" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q23" t="n">
         <v>41.6354280810132</v>
@@ -32736,7 +32736,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S23" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T23" t="n">
         <v>1.687759941888717</v>
@@ -32782,28 +32782,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H24" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I24" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J24" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K24" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L24" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M24" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N24" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O24" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P24" t="n">
         <v>39.39219846783038</v>
@@ -32818,7 +32818,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U24" t="n">
         <v>0.01357166100917488</v>
@@ -32864,25 +32864,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I25" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J25" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K25" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L25" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M25" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N25" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O25" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P25" t="n">
         <v>20.91702959016679</v>
@@ -32891,13 +32891,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R25" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S25" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U25" t="n">
         <v>0.009433416832606806</v>
@@ -32946,7 +32946,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J26" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K26" t="n">
         <v>49.04383636962353</v>
@@ -32955,16 +32955,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M26" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N26" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O26" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P26" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q26" t="n">
         <v>41.6354280810132</v>
@@ -32973,7 +32973,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S26" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T26" t="n">
         <v>1.687759941888717</v>
@@ -33019,28 +33019,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H27" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I27" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J27" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K27" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L27" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M27" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N27" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O27" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P27" t="n">
         <v>39.39219846783038</v>
@@ -33055,7 +33055,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U27" t="n">
         <v>0.01357166100917488</v>
@@ -33101,25 +33101,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I28" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J28" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K28" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L28" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M28" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N28" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O28" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P28" t="n">
         <v>20.91702959016679</v>
@@ -33128,13 +33128,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R28" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S28" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U28" t="n">
         <v>0.009433416832606806</v>
@@ -33183,7 +33183,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J29" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K29" t="n">
         <v>49.04383636962353</v>
@@ -33192,16 +33192,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M29" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N29" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O29" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P29" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q29" t="n">
         <v>41.6354280810132</v>
@@ -33210,7 +33210,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S29" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T29" t="n">
         <v>1.687759941888717</v>
@@ -33256,28 +33256,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H30" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I30" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J30" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K30" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L30" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M30" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N30" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O30" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P30" t="n">
         <v>39.39219846783038</v>
@@ -33292,7 +33292,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U30" t="n">
         <v>0.01357166100917488</v>
@@ -33338,25 +33338,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I31" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J31" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K31" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L31" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M31" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N31" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O31" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P31" t="n">
         <v>20.91702959016679</v>
@@ -33365,13 +33365,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R31" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S31" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U31" t="n">
         <v>0.009433416832606806</v>
@@ -33420,7 +33420,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J32" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K32" t="n">
         <v>49.04383636962353</v>
@@ -33429,16 +33429,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M32" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N32" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O32" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P32" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q32" t="n">
         <v>41.6354280810132</v>
@@ -33447,7 +33447,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S32" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T32" t="n">
         <v>1.687759941888717</v>
@@ -33493,28 +33493,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H33" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I33" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J33" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K33" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L33" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M33" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N33" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O33" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P33" t="n">
         <v>39.39219846783038</v>
@@ -33529,7 +33529,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U33" t="n">
         <v>0.01357166100917488</v>
@@ -33575,25 +33575,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I34" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J34" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K34" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L34" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M34" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N34" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O34" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P34" t="n">
         <v>20.91702959016679</v>
@@ -33602,13 +33602,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R34" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S34" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U34" t="n">
         <v>0.009433416832606806</v>
@@ -33657,7 +33657,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J35" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K35" t="n">
         <v>49.04383636962353</v>
@@ -33666,16 +33666,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M35" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N35" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O35" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P35" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q35" t="n">
         <v>41.6354280810132</v>
@@ -33684,7 +33684,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S35" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T35" t="n">
         <v>1.687759941888717</v>
@@ -33730,28 +33730,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H36" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I36" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J36" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K36" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L36" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M36" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N36" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O36" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P36" t="n">
         <v>39.39219846783038</v>
@@ -33766,7 +33766,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U36" t="n">
         <v>0.01357166100917488</v>
@@ -33812,25 +33812,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I37" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J37" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K37" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L37" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M37" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N37" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O37" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P37" t="n">
         <v>20.91702959016679</v>
@@ -33839,13 +33839,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R37" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S37" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U37" t="n">
         <v>0.009433416832606806</v>
@@ -33894,7 +33894,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J38" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K38" t="n">
         <v>49.04383636962353</v>
@@ -33903,16 +33903,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M38" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N38" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O38" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P38" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q38" t="n">
         <v>41.6354280810132</v>
@@ -33921,7 +33921,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S38" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T38" t="n">
         <v>1.687759941888717</v>
@@ -33967,28 +33967,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H39" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I39" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J39" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K39" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L39" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M39" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N39" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O39" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P39" t="n">
         <v>39.39219846783038</v>
@@ -34003,7 +34003,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U39" t="n">
         <v>0.01357166100917488</v>
@@ -34049,25 +34049,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I40" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J40" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K40" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L40" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M40" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N40" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O40" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P40" t="n">
         <v>20.91702959016679</v>
@@ -34076,13 +34076,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R40" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S40" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U40" t="n">
         <v>0.009433416832606806</v>
@@ -34131,7 +34131,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J41" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K41" t="n">
         <v>49.04383636962353</v>
@@ -34140,16 +34140,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M41" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N41" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O41" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P41" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q41" t="n">
         <v>41.6354280810132</v>
@@ -34158,7 +34158,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S41" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T41" t="n">
         <v>1.687759941888717</v>
@@ -34204,28 +34204,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H42" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I42" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J42" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K42" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L42" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M42" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N42" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O42" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P42" t="n">
         <v>39.39219846783038</v>
@@ -34240,7 +34240,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U42" t="n">
         <v>0.01357166100917488</v>
@@ -34286,25 +34286,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I43" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J43" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K43" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L43" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M43" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N43" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O43" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P43" t="n">
         <v>20.91702959016679</v>
@@ -34313,13 +34313,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R43" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S43" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U43" t="n">
         <v>0.009433416832606806</v>
@@ -34368,7 +34368,7 @@
         <v>14.86404686685661</v>
       </c>
       <c r="J44" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174816</v>
       </c>
       <c r="K44" t="n">
         <v>49.04383636962353</v>
@@ -34377,16 +34377,16 @@
         <v>60.84321576918421</v>
       </c>
       <c r="M44" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582348</v>
       </c>
       <c r="N44" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033892</v>
       </c>
       <c r="O44" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040039</v>
       </c>
       <c r="P44" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356367</v>
       </c>
       <c r="Q44" t="n">
         <v>41.6354280810132</v>
@@ -34395,7 +34395,7 @@
         <v>24.21901780689142</v>
       </c>
       <c r="S44" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748524</v>
       </c>
       <c r="T44" t="n">
         <v>1.687759941888717</v>
@@ -34441,28 +34441,28 @@
         <v>0.2062892473394581</v>
       </c>
       <c r="H45" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I45" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801517</v>
       </c>
       <c r="J45" t="n">
         <v>19.48980998657573</v>
       </c>
       <c r="K45" t="n">
-        <v>33.31118955831943</v>
+        <v>33.31118955831942</v>
       </c>
       <c r="L45" t="n">
         <v>44.79100521728014</v>
       </c>
       <c r="M45" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333548</v>
       </c>
       <c r="N45" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887072</v>
       </c>
       <c r="O45" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098062</v>
       </c>
       <c r="P45" t="n">
         <v>39.39219846783038</v>
@@ -34477,7 +34477,7 @@
         <v>3.83173229159037</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621135</v>
       </c>
       <c r="U45" t="n">
         <v>0.01357166100917488</v>
@@ -34523,25 +34523,25 @@
         <v>1.537646943714909</v>
       </c>
       <c r="I46" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043881</v>
       </c>
       <c r="J46" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K46" t="n">
         <v>20.09317785345247</v>
       </c>
       <c r="L46" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340859</v>
       </c>
       <c r="M46" t="n">
         <v>27.11006774077316</v>
       </c>
       <c r="N46" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O46" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556175</v>
       </c>
       <c r="P46" t="n">
         <v>20.91702959016679</v>
@@ -34550,13 +34550,13 @@
         <v>14.4818670741902</v>
       </c>
       <c r="R46" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345533</v>
       </c>
       <c r="S46" t="n">
         <v>3.01397667801787</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208654</v>
       </c>
       <c r="U46" t="n">
         <v>0.009433416832606806</v>
@@ -34795,10 +34795,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15.27581240187084</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>410.2128322190937</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
@@ -35032,7 +35032,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.787477306886596</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35266,13 +35266,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.4491638875114</v>
+        <v>105.4491638875115</v>
       </c>
       <c r="K11" t="n">
-        <v>291.6098687380909</v>
+        <v>291.609868738091</v>
       </c>
       <c r="L11" t="n">
-        <v>412.2425825216551</v>
+        <v>412.2425825216552</v>
       </c>
       <c r="M11" t="n">
-        <v>464.9110798193466</v>
+        <v>464.9110798193467</v>
       </c>
       <c r="N11" t="n">
-        <v>450.9481418936881</v>
+        <v>450.9481418936882</v>
       </c>
       <c r="O11" t="n">
-        <v>373.0468467218488</v>
+        <v>373.0468467218489</v>
       </c>
       <c r="P11" t="n">
         <v>285.9045702453346</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.021542915899</v>
+        <v>137.0215429158991</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.35258426244052</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>265.119828508005</v>
       </c>
       <c r="L12" t="n">
-        <v>83.5197625139253</v>
+        <v>414.3080205406293</v>
       </c>
       <c r="M12" t="n">
         <v>542.2016707466955</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0823406577819</v>
+        <v>319.6466668935186</v>
       </c>
       <c r="O12" t="n">
         <v>445.2430260996179</v>
@@ -35509,7 +35509,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.697924079113</v>
+        <v>185.6979240791131</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408754</v>
       </c>
       <c r="K13" t="n">
         <v>159.6446358708001</v>
@@ -35588,7 +35588,7 @@
         <v>190.1293926413472</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.9377331742017</v>
+        <v>81.93773317420171</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.35258426244053</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>120.0294945604136</v>
+        <v>265.119828508005</v>
       </c>
       <c r="L15" t="n">
         <v>414.3080205406293</v>
@@ -35737,7 +35737,7 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N15" t="n">
-        <v>570.082340657782</v>
+        <v>319.6466668935186</v>
       </c>
       <c r="O15" t="n">
         <v>445.2430260996179</v>
@@ -35746,7 +35746,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>185.6979240791131</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K17" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L17" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M17" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N17" t="n">
         <v>450.9481418936882</v>
@@ -35968,10 +35968,10 @@
         <v>265.119828508005</v>
       </c>
       <c r="L18" t="n">
-        <v>414.3080205406293</v>
+        <v>83.51976251392513</v>
       </c>
       <c r="M18" t="n">
-        <v>211.4134127199914</v>
+        <v>542.2016707466955</v>
       </c>
       <c r="N18" t="n">
         <v>570.082340657782</v>
@@ -35983,7 +35983,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>251.9032614984827</v>
       </c>
       <c r="N19" t="n">
-        <v>251.6918119765361</v>
+        <v>251.6918119765363</v>
       </c>
       <c r="O19" t="n">
         <v>229.511190301946</v>
@@ -36123,13 +36123,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K20" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L20" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M20" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N20" t="n">
         <v>450.9481418936882</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.68415474374135</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>265.119828508005</v>
       </c>
       <c r="L21" t="n">
         <v>414.3080205406293</v>
@@ -36211,7 +36211,7 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N21" t="n">
-        <v>570.082340657782</v>
+        <v>319.6466668935186</v>
       </c>
       <c r="O21" t="n">
         <v>445.2430260996179</v>
@@ -36220,7 +36220,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36296,10 +36296,10 @@
         <v>229.511190301946</v>
       </c>
       <c r="P22" t="n">
-        <v>190.1293926413473</v>
+        <v>190.1293926413472</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.93773317420171</v>
+        <v>81.93773317420202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K23" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L23" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M23" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N23" t="n">
         <v>450.9481418936882</v>
@@ -36448,16 +36448,16 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N24" t="n">
-        <v>570.082340657782</v>
+        <v>239.2940826310777</v>
       </c>
       <c r="O24" t="n">
         <v>445.2430260996179</v>
       </c>
       <c r="P24" t="n">
-        <v>13.75133364890093</v>
+        <v>344.5395916756054</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408772</v>
       </c>
       <c r="K25" t="n">
         <v>159.6446358708001</v>
@@ -36530,7 +36530,7 @@
         <v>251.6918119765361</v>
       </c>
       <c r="O25" t="n">
-        <v>229.5111903019463</v>
+        <v>229.511190301946</v>
       </c>
       <c r="P25" t="n">
         <v>190.1293926413472</v>
@@ -36597,13 +36597,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K26" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L26" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M26" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N26" t="n">
         <v>450.9481418936882</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>80.35258426244053</v>
       </c>
       <c r="K27" t="n">
         <v>265.119828508005</v>
       </c>
       <c r="L27" t="n">
-        <v>163.8723467763657</v>
+        <v>414.3080205406293</v>
       </c>
       <c r="M27" t="n">
         <v>542.2016707466955</v>
       </c>
       <c r="N27" t="n">
-        <v>570.082340657782</v>
+        <v>239.2940826310777</v>
       </c>
       <c r="O27" t="n">
         <v>445.2430260996179</v>
@@ -36694,7 +36694,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K29" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L29" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M29" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N29" t="n">
         <v>450.9481418936882</v>
@@ -36849,7 +36849,7 @@
         <v>373.0468467218489</v>
       </c>
       <c r="P29" t="n">
-        <v>285.9045702453345</v>
+        <v>285.9045702453346</v>
       </c>
       <c r="Q29" t="n">
         <v>137.0215429158991</v>
@@ -36913,16 +36913,16 @@
         <v>80.35258426244053</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>265.119828508005</v>
       </c>
       <c r="L30" t="n">
         <v>414.3080205406293</v>
       </c>
       <c r="M30" t="n">
-        <v>476.5332412279964</v>
+        <v>542.2016707466955</v>
       </c>
       <c r="N30" t="n">
-        <v>570.082340657782</v>
+        <v>239.2940826310781</v>
       </c>
       <c r="O30" t="n">
         <v>445.2430260996179</v>
@@ -36931,7 +36931,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q30" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>190.1293926413472</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.93773317420171</v>
+        <v>81.9377331742017</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K32" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L32" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M32" t="n">
-        <v>464.9110798193468</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N32" t="n">
         <v>450.9481418936882</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>14.68415474374135</v>
+        <v>265.119828508005</v>
       </c>
       <c r="L33" t="n">
         <v>414.3080205406293</v>
@@ -37159,7 +37159,7 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N33" t="n">
-        <v>570.082340657782</v>
+        <v>319.6466668935186</v>
       </c>
       <c r="O33" t="n">
         <v>445.2430260996179</v>
@@ -37168,7 +37168,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q33" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>58.37844828408753</v>
       </c>
       <c r="K34" t="n">
-        <v>159.6446358708004</v>
+        <v>159.6446358708001</v>
       </c>
       <c r="L34" t="n">
-        <v>232.9434963717826</v>
+        <v>232.9434963717829</v>
       </c>
       <c r="M34" t="n">
         <v>251.9032614984827</v>
@@ -37308,13 +37308,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K35" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L35" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M35" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N35" t="n">
         <v>450.9481418936882</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.68415474374136</v>
+        <v>265.119828508005</v>
       </c>
       <c r="L36" t="n">
         <v>414.3080205406293</v>
@@ -37396,7 +37396,7 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N36" t="n">
-        <v>570.082340657782</v>
+        <v>319.6466668935186</v>
       </c>
       <c r="O36" t="n">
         <v>445.2430260996179</v>
@@ -37405,7 +37405,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q36" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408772</v>
       </c>
       <c r="K37" t="n">
         <v>159.6446358708001</v>
@@ -37481,7 +37481,7 @@
         <v>229.511190301946</v>
       </c>
       <c r="P37" t="n">
-        <v>190.1293926413473</v>
+        <v>190.1293926413472</v>
       </c>
       <c r="Q37" t="n">
         <v>81.93773317420171</v>
@@ -37545,13 +37545,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K38" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L38" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M38" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N38" t="n">
         <v>450.9481418936882</v>
@@ -37633,16 +37633,16 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N39" t="n">
-        <v>570.082340657782</v>
+        <v>239.2940826310777</v>
       </c>
       <c r="O39" t="n">
-        <v>300.1526921520265</v>
+        <v>445.2430260996179</v>
       </c>
       <c r="P39" t="n">
         <v>344.5395916756054</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>229.511190301946</v>
       </c>
       <c r="P40" t="n">
-        <v>190.1293926413472</v>
+        <v>190.1293926413473</v>
       </c>
       <c r="Q40" t="n">
         <v>81.93773317420171</v>
@@ -37782,13 +37782,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K41" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L41" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M41" t="n">
-        <v>464.9110798193475</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N41" t="n">
         <v>450.9481418936882</v>
@@ -37870,7 +37870,7 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N42" t="n">
-        <v>424.9920067101906</v>
+        <v>239.2940826310777</v>
       </c>
       <c r="O42" t="n">
         <v>445.2430260996179</v>
@@ -37879,7 +37879,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K44" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L44" t="n">
         <v>412.2425825216552</v>
       </c>
       <c r="M44" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193468</v>
       </c>
       <c r="N44" t="n">
         <v>450.9481418936882</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>80.35258426244053</v>
       </c>
       <c r="K45" t="n">
-        <v>14.68415474374135</v>
+        <v>265.119828508005</v>
       </c>
       <c r="L45" t="n">
         <v>414.3080205406293</v>
@@ -38107,7 +38107,7 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N45" t="n">
-        <v>570.082340657782</v>
+        <v>239.2940826310777</v>
       </c>
       <c r="O45" t="n">
         <v>445.2430260996179</v>
@@ -38116,7 +38116,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.6979240791131</v>
+        <v>185.697924079113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
